--- a/assets/Gantt-projektplanlægger1.xlsx
+++ b/assets/Gantt-projektplanlægger1.xlsx
@@ -1050,7 +1050,9 @@
   </sheetPr>
   <dimension ref="B1:BO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1368,16 +1370,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G5" s="8">
         <v>0.25</v>
@@ -1388,16 +1390,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G6" s="8">
         <v>1</v>
@@ -1408,16 +1410,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" s="8">
         <v>0.35</v>
@@ -1428,16 +1430,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F8" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G8" s="8">
         <v>0.1</v>
@@ -1448,16 +1450,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F9" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G9" s="8">
         <v>0.85</v>
@@ -1468,16 +1470,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F10" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G10" s="8">
         <v>0.85</v>
@@ -1488,16 +1490,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G11" s="8">
         <v>0.5</v>
@@ -1508,16 +1510,16 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G12" s="8">
         <v>0.6</v>
@@ -1528,16 +1530,16 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F13" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G13" s="8">
         <v>0.75</v>
@@ -1548,16 +1550,16 @@
         <v>11</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F14" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G14" s="8">
         <v>1</v>
@@ -1568,16 +1570,16 @@
         <v>12</v>
       </c>
       <c r="C15" s="9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F15" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G15" s="8">
         <v>0.6</v>
@@ -1588,16 +1590,16 @@
         <v>13</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F16" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G16" s="8">
         <v>0</v>
@@ -1608,16 +1610,16 @@
         <v>14</v>
       </c>
       <c r="C17" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F17" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G17" s="8">
         <v>0.5</v>
@@ -1628,16 +1630,16 @@
         <v>15</v>
       </c>
       <c r="C18" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="8">
         <v>0</v>
@@ -1648,16 +1650,16 @@
         <v>16</v>
       </c>
       <c r="C19" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F19" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G19" s="8">
         <v>0.01</v>
@@ -1668,16 +1670,16 @@
         <v>17</v>
       </c>
       <c r="C20" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F20" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G20" s="8">
         <v>0.8</v>
@@ -1688,16 +1690,16 @@
         <v>18</v>
       </c>
       <c r="C21" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D21" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F21" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G21" s="8">
         <v>0</v>
@@ -1708,16 +1710,16 @@
         <v>19</v>
       </c>
       <c r="C22" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F22" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G22" s="8">
         <v>0</v>
@@ -1728,16 +1730,16 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F23" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G23" s="8">
         <v>0</v>
@@ -1748,16 +1750,16 @@
         <v>21</v>
       </c>
       <c r="C24" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D24" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E24" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F24" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G24" s="8">
         <v>0</v>
@@ -1768,16 +1770,16 @@
         <v>22</v>
       </c>
       <c r="C25" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F25" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25" s="8">
         <v>0.44</v>
@@ -1788,16 +1790,16 @@
         <v>23</v>
       </c>
       <c r="C26" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F26" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G26" s="8">
         <v>0</v>
@@ -1808,16 +1810,16 @@
         <v>24</v>
       </c>
       <c r="C27" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D27" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E27" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F27" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G27" s="8">
         <v>0.12</v>
@@ -1828,16 +1830,16 @@
         <v>25</v>
       </c>
       <c r="C28" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F28" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G28" s="8">
         <v>0.05</v>
@@ -1848,16 +1850,16 @@
         <v>26</v>
       </c>
       <c r="C29" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E29" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F29" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G29" s="8">
         <v>0</v>
@@ -1868,16 +1870,16 @@
         <v>27</v>
       </c>
       <c r="C30" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D30" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E30" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F30" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G30" s="8">
         <v>0.5</v>

--- a/assets/Gantt-projektplanlægger1.xlsx
+++ b/assets/Gantt-projektplanlægger1.xlsx
@@ -1050,8 +1050,8 @@
   </sheetPr>
   <dimension ref="B1:BO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="8">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="8">
-        <v>0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="8">
-        <v>0.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="8">
-        <v>0.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="8">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="8">
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="8">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="8">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="8">
-        <v>0.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="8">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="8">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Gantt-projektplanlægger1.xlsx
+++ b/assets/Gantt-projektplanlægger1.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Projektplanlægger</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>AKTIVITET</t>
-  </si>
-  <si>
-    <t>Aktivitet 01</t>
   </si>
   <si>
     <t>Aktivitet 02</t>
@@ -232,12 +229,18 @@
   <si>
     <t>Aktivitet 08</t>
   </si>
+  <si>
+    <t>Hver kolonne svarer til 1 time</t>
+  </si>
+  <si>
+    <t>Benny Koder Headeren</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -336,6 +339,21 @@
       <name val="Corbel"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -524,7 +542,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -638,6 +656,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1051,13 +1075,13 @@
   <dimension ref="B1:BO30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" style="2" customWidth="1"/>
     <col min="3" max="6" width="11.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="21" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="2.77734375" style="1"/>
@@ -1076,6 +1100,9 @@
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
+      <c r="P1" s="38" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="24" t="s">
@@ -1086,14 +1113,14 @@
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" s="15">
         <v>1</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L2" s="31"/>
       <c r="M2" s="31"/>
@@ -1101,21 +1128,21 @@
       <c r="O2" s="32"/>
       <c r="P2" s="17"/>
       <c r="Q2" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R2" s="33"/>
       <c r="S2" s="33"/>
       <c r="T2" s="32"/>
       <c r="U2" s="18"/>
       <c r="V2" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W2" s="23"/>
       <c r="X2" s="23"/>
       <c r="Y2" s="34"/>
       <c r="Z2" s="19"/>
       <c r="AA2" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB2" s="36"/>
       <c r="AC2" s="36"/>
@@ -1125,7 +1152,7 @@
       <c r="AG2" s="37"/>
       <c r="AH2" s="20"/>
       <c r="AI2" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
@@ -1140,22 +1167,22 @@
         <v>2</v>
       </c>
       <c r="C3" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="E3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="F3" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="27" t="s">
-        <v>31</v>
-      </c>
       <c r="G3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="21" t="s">
         <v>33</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>34</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
@@ -1163,7 +1190,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
+      <c r="O3" s="38"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
@@ -1366,8 +1393,8 @@
       </c>
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="6" t="s">
-        <v>3</v>
+      <c r="B5" s="39" t="s">
+        <v>41</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1387,7 +1414,7 @@
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1407,7 +1434,7 @@
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1427,7 +1454,7 @@
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1447,7 +1474,7 @@
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1467,7 +1494,7 @@
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1487,7 +1514,7 @@
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -1507,7 +1534,7 @@
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -1527,7 +1554,7 @@
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -1547,7 +1574,7 @@
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1567,7 +1594,7 @@
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="9">
         <v>0</v>
@@ -1587,7 +1614,7 @@
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -1607,7 +1634,7 @@
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1627,7 +1654,7 @@
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -1647,7 +1674,7 @@
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -1667,7 +1694,7 @@
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -1687,7 +1714,7 @@
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -1707,7 +1734,7 @@
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -1727,7 +1754,7 @@
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -1747,7 +1774,7 @@
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -1767,7 +1794,7 @@
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -1787,7 +1814,7 @@
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -1807,7 +1834,7 @@
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -1827,7 +1854,7 @@
     </row>
     <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -1847,7 +1874,7 @@
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -1867,7 +1894,7 @@
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>

--- a/assets/Gantt-projektplanlægger1.xlsx
+++ b/assets/Gantt-projektplanlægger1.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Projektplanlægger</t>
   </si>
@@ -45,78 +45,6 @@
   </si>
   <si>
     <t>AKTIVITET</t>
-  </si>
-  <si>
-    <t>Aktivitet 02</t>
-  </si>
-  <si>
-    <t>Aktivitet 03</t>
-  </si>
-  <si>
-    <t>Aktivitet 04</t>
-  </si>
-  <si>
-    <t>Aktivitet 05</t>
-  </si>
-  <si>
-    <t>Aktivitet 06</t>
-  </si>
-  <si>
-    <t>Aktivitet 07</t>
-  </si>
-  <si>
-    <t>Aktivitet 09</t>
-  </si>
-  <si>
-    <t>Aktivitet 10</t>
-  </si>
-  <si>
-    <t>Aktivitet 11</t>
-  </si>
-  <si>
-    <t>Aktivitet 12</t>
-  </si>
-  <si>
-    <t>Aktivitet 13</t>
-  </si>
-  <si>
-    <t>Aktivitet 14</t>
-  </si>
-  <si>
-    <t>Aktivitet 15</t>
-  </si>
-  <si>
-    <t>Aktivitet 16</t>
-  </si>
-  <si>
-    <t>Aktivitet 17</t>
-  </si>
-  <si>
-    <t>Aktivitet 18</t>
-  </si>
-  <si>
-    <t>Aktivitet 19</t>
-  </si>
-  <si>
-    <t>Aktivitet 20</t>
-  </si>
-  <si>
-    <t>Aktivitet 21</t>
-  </si>
-  <si>
-    <t>Aktivitet 22</t>
-  </si>
-  <si>
-    <t>Aktivitet 23</t>
-  </si>
-  <si>
-    <t>Aktivitet 24</t>
-  </si>
-  <si>
-    <t>Aktivitet 25</t>
-  </si>
-  <si>
-    <t>Aktivitet 26</t>
   </si>
   <si>
     <t>STARTDATO FOR PLAN</t>
@@ -227,13 +155,85 @@
     </r>
   </si>
   <si>
-    <t>Aktivitet 08</t>
-  </si>
-  <si>
-    <t>Hver kolonne svarer til 1 time</t>
-  </si>
-  <si>
-    <t>Benny Koder Headeren</t>
+    <t>Hver kolonne svarer til 1 dag</t>
+  </si>
+  <si>
+    <t>website &amp; databse opsætning</t>
+  </si>
+  <si>
+    <t>Udarbejde design i photoshop, tilpasse grafikelementer</t>
+  </si>
+  <si>
+    <t>Opsætning af design HTML/CSS, inklusiv menuer og andre gentagende elementer (MasterPage/includes)</t>
+  </si>
+  <si>
+    <t>Gør designet responsivt (bootstrap) - evt</t>
+  </si>
+  <si>
+    <t>Opsætning af forsiden HTML/CSS, statisk</t>
+  </si>
+  <si>
+    <t>Opsætning af Nyheds siden HTML/CSS, statisk</t>
+  </si>
+  <si>
+    <t>Opsætning af Nyheds detalje side HTML/CSS, statisk</t>
+  </si>
+  <si>
+    <t>Opsætning af Aktivitets siden HTML/CSS, statisk</t>
+  </si>
+  <si>
+    <t>Opsætning af Aktivitetssiden detalje siden HTML/CSS, statisk</t>
+  </si>
+  <si>
+    <t>Opsætning af kontakt siden HTML/CSS, statisk</t>
+  </si>
+  <si>
+    <t>Opsætning af Kontaktsidens formular (clientside validering)</t>
+  </si>
+  <si>
+    <t>Kontaktside validering af data (serverside) samt indsæt i DB (INSERT)</t>
+  </si>
+  <si>
+    <t>Loginformular til backendm validering, database, sessions</t>
+  </si>
+  <si>
+    <t>Vis oversigt over alle nyheder, hent fra DB (SELECT)</t>
+  </si>
+  <si>
+    <t>Opret nyhed, HTML/CSS formular, validering, indset i DB (INSERT)</t>
+  </si>
+  <si>
+    <t>Ret nyhed, genbrug form og validering fra opret nyhed, hent den ønskede nyhed fra DB og for udfyld formularen, opdater database (UPDATE)</t>
+  </si>
+  <si>
+    <t>Slet nyhed, slet fra databasen (DELETE)</t>
+  </si>
+  <si>
+    <t>Vis oversigt over alle aktiviteter, hent fra DB (SELECT)</t>
+  </si>
+  <si>
+    <t>Opret aktivitet, HTML/CSS formular, validering, indsæt i DB (INSERT)</t>
+  </si>
+  <si>
+    <t>Aktivitet admin billede upload funktioner, flyt til server, slet fra server, sikring af unikke filnavne</t>
+  </si>
+  <si>
+    <t>Slet aktivitet, slet fra databasen (DELETE)</t>
+  </si>
+  <si>
+    <t>Vis oversigt over alle henvendelser, hent fra DB (SELECT)</t>
+  </si>
+  <si>
+    <t>Gør forsiden siden dynamisk vis de seneste 3 nyheder</t>
+  </si>
+  <si>
+    <t>gør aktivitetssiden dynamisk, vis 2 vilkårlige nyheder</t>
+  </si>
+  <si>
+    <t>Gør enkelt nyhed siden dynamisk</t>
+  </si>
+  <si>
+    <t>gør Enkelt aktivitet dynamisk</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -570,9 +570,6 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -609,6 +606,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -656,12 +659,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1072,16 +1069,16 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO30"/>
+  <dimension ref="B1:BO31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="148.21875" style="2" customWidth="1"/>
     <col min="3" max="6" width="11.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="21" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="2.77734375" style="1"/>
@@ -1092,125 +1089,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="B1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="P1" s="38" t="s">
-        <v>40</v>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="P1" s="21" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="15">
+        <v>7</v>
+      </c>
+      <c r="H2" s="14">
         <v>1</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
-    </row>
-    <row r="3" spans="2:67" s="12" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
+      <c r="J2" s="15"/>
+      <c r="K2" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
+    </row>
+    <row r="3" spans="2:67" s="11" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
+      <c r="C3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1393,8 +1390,8 @@
       </c>
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="39" t="s">
-        <v>41</v>
+      <c r="B5" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1414,7 +1411,7 @@
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1434,7 +1431,7 @@
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1454,7 +1451,7 @@
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1474,7 +1471,7 @@
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1494,7 +1491,7 @@
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1514,7 +1511,7 @@
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -1534,7 +1531,7 @@
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -1554,7 +1551,7 @@
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -1574,7 +1571,7 @@
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1594,9 +1591,9 @@
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="9">
+        <v>26</v>
+      </c>
+      <c r="C15" s="7">
         <v>0</v>
       </c>
       <c r="D15" s="7">
@@ -1614,7 +1611,7 @@
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -1634,7 +1631,7 @@
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1654,7 +1651,7 @@
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -1674,7 +1671,7 @@
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="6" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -1694,7 +1691,7 @@
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="6" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -1714,7 +1711,7 @@
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="6" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -1734,7 +1731,7 @@
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="6" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -1754,7 +1751,7 @@
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="6" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -1774,7 +1771,7 @@
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="6" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -1794,7 +1791,7 @@
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="6" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -1814,7 +1811,7 @@
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="6" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -1834,7 +1831,7 @@
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -1854,7 +1851,7 @@
     </row>
     <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="6" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -1874,7 +1871,7 @@
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="6" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -1894,7 +1891,7 @@
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="6" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -1909,6 +1906,26 @@
         <v>0</v>
       </c>
       <c r="G30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0</v>
+      </c>
+      <c r="G31" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1927,7 +1944,7 @@
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:BO30">
+  <conditionalFormatting sqref="H5:BO31">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>ProcentdelFuldført</formula>
     </cfRule>
@@ -1953,7 +1970,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:BO31">
+  <conditionalFormatting sqref="B31">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>TRUE</formula>
     </cfRule>

--- a/assets/Gantt-projektplanlægger1.xlsx
+++ b/assets/Gantt-projektplanlægger1.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Projektplanlægger</t>
   </si>
@@ -155,92 +155,107 @@
     </r>
   </si>
   <si>
-    <t>Hver kolonne svarer til 1 dag</t>
+    <t>Hver kolonne svarer til 1 time</t>
   </si>
   <si>
-    <t>website &amp; databse opsætning</t>
+    <t>website &amp; database opsætning (Egon)</t>
   </si>
   <si>
-    <t>Udarbejde design i photoshop, tilpasse grafikelementer</t>
+    <t>Udarbejde design i photoshop, tilpasse grafikelementer (Kjeld)</t>
   </si>
   <si>
-    <t>Opsætning af design HTML/CSS, inklusiv menuer og andre gentagende elementer (MasterPage/includes)</t>
+    <t>Opsætning af design HTML/CSS, inklusiv menuer og andre gentagende elementer (MasterPage/includes) (Egon)</t>
   </si>
   <si>
-    <t>Gør designet responsivt (bootstrap) - evt</t>
+    <t>Gør designet responsivt (bootstrap) - evt (Benny)</t>
   </si>
   <si>
-    <t>Opsætning af forsiden HTML/CSS, statisk</t>
+    <t>Opsætning af forsiden HTML/CSS, statisk (Benny)</t>
   </si>
   <si>
-    <t>Opsætning af Nyheds siden HTML/CSS, statisk</t>
+    <t>Opsætning af Nyheds siden HTML/CSS, statisk (Benny)</t>
   </si>
   <si>
-    <t>Opsætning af Nyheds detalje side HTML/CSS, statisk</t>
+    <t>Opsætning af Nyheds detalje side HTML/CSS, statisk (Benny)</t>
   </si>
   <si>
-    <t>Opsætning af Aktivitets siden HTML/CSS, statisk</t>
+    <t>Opsætning af Aktivitets siden HTML/CSS, statisk (Benny)</t>
   </si>
   <si>
-    <t>Opsætning af Aktivitetssiden detalje siden HTML/CSS, statisk</t>
+    <t>Opsætning af kontakt siden HTML/CSS, statisk (Benny)</t>
   </si>
   <si>
-    <t>Opsætning af kontakt siden HTML/CSS, statisk</t>
+    <t>Opsætning af Aktivitetssiden detalje siden HTML/CSS, statisk (Egon)</t>
   </si>
   <si>
-    <t>Opsætning af Kontaktsidens formular (clientside validering)</t>
+    <t>Opsætning af Kontaktsidens formular (clientside validering) (Egon)</t>
   </si>
   <si>
-    <t>Kontaktside validering af data (serverside) samt indsæt i DB (INSERT)</t>
+    <t>Kontaktside validering af data (serverside) samt indsæt i DB (INSERT) (Egon)</t>
   </si>
   <si>
-    <t>Loginformular til backendm validering, database, sessions</t>
+    <t>Loginformular til backendm validering, database, sessions (Egon)</t>
   </si>
   <si>
-    <t>Vis oversigt over alle nyheder, hent fra DB (SELECT)</t>
+    <t>Vis oversigt over alle nyheder, hent fra DB (SELECT) (Egon)</t>
   </si>
   <si>
-    <t>Opret nyhed, HTML/CSS formular, validering, indset i DB (INSERT)</t>
+    <t>Slet aktivitet, slet fra databasen (DELETE) (Egon)</t>
   </si>
   <si>
-    <t>Ret nyhed, genbrug form og validering fra opret nyhed, hent den ønskede nyhed fra DB og for udfyld formularen, opdater database (UPDATE)</t>
+    <t>gør aktivitetssiden dynamisk, vis 2 vilkårlige nyheder (Egon)</t>
   </si>
   <si>
-    <t>Slet nyhed, slet fra databasen (DELETE)</t>
+    <t>Opret nyhed, HTML/CSS formular, validering, indset i DB (INSERT) (Mikkel)</t>
   </si>
   <si>
-    <t>Vis oversigt over alle aktiviteter, hent fra DB (SELECT)</t>
+    <t>Ret nyhed, genbrug form og validering fra opret nyhed, hent den ønskede nyhed fra DB og for udfyld formularen, opdater database (UPDATE) (Mikkel)</t>
   </si>
   <si>
-    <t>Opret aktivitet, HTML/CSS formular, validering, indsæt i DB (INSERT)</t>
+    <t>Slet nyhed, slet fra databasen (DELETE) (Mikkel)</t>
   </si>
   <si>
-    <t>Aktivitet admin billede upload funktioner, flyt til server, slet fra server, sikring af unikke filnavne</t>
+    <t>Alpha Test (Benny)</t>
   </si>
   <si>
-    <t>Slet aktivitet, slet fra databasen (DELETE)</t>
+    <t>Beta Test (Benny)</t>
   </si>
   <si>
-    <t>Vis oversigt over alle henvendelser, hent fra DB (SELECT)</t>
+    <t>Vis oversigt over alle aktiviteter, hent fra DB (SELECT) (Egon)</t>
   </si>
   <si>
-    <t>Gør forsiden siden dynamisk vis de seneste 3 nyheder</t>
+    <t>Opret aktivitet, HTML/CSS formular, validering, indsæt i DB (INSERT)(Mikkel)</t>
   </si>
   <si>
-    <t>gør aktivitetssiden dynamisk, vis 2 vilkårlige nyheder</t>
+    <t>Aktivitet admin billede upload funktioner, flyt til server, slet fra server, sikring af unikke filnavne (Kjeld)</t>
   </si>
   <si>
-    <t>Gør enkelt nyhed siden dynamisk</t>
+    <t>Vis oversigt over alle henvendelser, hent fra DB (SELECT) (Kjeld)</t>
   </si>
   <si>
-    <t>gør Enkelt aktivitet dynamisk</t>
+    <t>Slet nyhed, slet fra databasen (DELETE) (Kjeld)</t>
+  </si>
+  <si>
+    <t>Gør forsiden siden dynamisk vis de seneste 3 nyheder (Kjeld)</t>
+  </si>
+  <si>
+    <t>Gør enkelt nyhed siden dynamisk (Kjeld)</t>
+  </si>
+  <si>
+    <t>gør Enkelt aktivitet dynamisk (Kjeld)</t>
+  </si>
+  <si>
+    <t>Launch Event (Kjeld)</t>
+  </si>
+  <si>
+    <t>Kunde møder (Kjeld)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -270,12 +285,6 @@
       <name val="Corbel"/>
       <family val="2"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="12"/>
@@ -354,6 +363,21 @@
       <color theme="1" tint="0.24994659260841701"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -489,14 +513,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" applyFill="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -505,44 +529,44 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="6" borderId="1">
+    <xf numFmtId="1" fontId="12" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -552,25 +576,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="3">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="3">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="7">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="7">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -579,13 +600,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="6" borderId="1" xfId="13">
+    <xf numFmtId="1" fontId="12" fillId="6" borderId="1" xfId="13">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="14" applyFont="1" applyAlignment="1">
@@ -603,13 +624,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
@@ -618,34 +639,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
@@ -659,6 +680,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1069,16 +1099,16 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO31"/>
+  <dimension ref="B1:HW43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="148.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="160.6640625" style="2" customWidth="1"/>
     <col min="3" max="6" width="11.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="21" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="2.77734375" style="1"/>
@@ -1086,128 +1116,129 @@
     <col min="16" max="16" width="2.77734375" style="1"/>
     <col min="17" max="20" width="4" style="1" customWidth="1"/>
     <col min="21" max="27" width="2.77734375" style="1"/>
+    <col min="107" max="231" width="3.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="B1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="P1" s="21" t="s">
+    <row r="1" spans="2:231" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="P1" s="39" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="2:231" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="13">
         <v>1</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="31" t="s">
+      <c r="J2" s="14"/>
+      <c r="K2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="31" t="s">
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="23" t="s">
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="36" t="s">
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="23" t="s">
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
     </row>
-    <row r="3" spans="2:67" s="11" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
+    <row r="3" spans="2:231" s="10" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
     </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="27"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+    <row r="4" spans="2:231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="26"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1388,545 +1419,3522 @@
       <c r="BO4" s="3">
         <v>60</v>
       </c>
+      <c r="BP4" s="3">
+        <v>61</v>
+      </c>
+      <c r="BQ4" s="3">
+        <v>62</v>
+      </c>
+      <c r="BR4" s="3">
+        <v>63</v>
+      </c>
+      <c r="BS4" s="3">
+        <v>64</v>
+      </c>
+      <c r="BT4" s="3">
+        <v>65</v>
+      </c>
+      <c r="BU4" s="3">
+        <v>66</v>
+      </c>
+      <c r="BV4" s="3">
+        <v>67</v>
+      </c>
+      <c r="BW4" s="3">
+        <v>68</v>
+      </c>
+      <c r="BX4" s="3">
+        <v>69</v>
+      </c>
+      <c r="BY4" s="3">
+        <v>70</v>
+      </c>
+      <c r="BZ4" s="3">
+        <v>71</v>
+      </c>
+      <c r="CA4" s="3">
+        <v>72</v>
+      </c>
+      <c r="CB4" s="3">
+        <v>73</v>
+      </c>
+      <c r="CC4" s="3">
+        <v>74</v>
+      </c>
+      <c r="CD4" s="3">
+        <v>75</v>
+      </c>
+      <c r="CE4" s="3">
+        <v>76</v>
+      </c>
+      <c r="CF4" s="3">
+        <v>77</v>
+      </c>
+      <c r="CG4" s="3">
+        <v>78</v>
+      </c>
+      <c r="CH4" s="3">
+        <v>79</v>
+      </c>
+      <c r="CI4" s="3">
+        <v>80</v>
+      </c>
+      <c r="CJ4" s="3">
+        <v>81</v>
+      </c>
+      <c r="CK4" s="3">
+        <v>82</v>
+      </c>
+      <c r="CL4" s="3">
+        <v>83</v>
+      </c>
+      <c r="CM4" s="3">
+        <v>84</v>
+      </c>
+      <c r="CN4" s="3">
+        <v>85</v>
+      </c>
+      <c r="CO4" s="3">
+        <v>86</v>
+      </c>
+      <c r="CP4" s="3">
+        <v>87</v>
+      </c>
+      <c r="CQ4" s="3">
+        <v>88</v>
+      </c>
+      <c r="CR4" s="3">
+        <v>89</v>
+      </c>
+      <c r="CS4" s="3">
+        <v>90</v>
+      </c>
+      <c r="CT4" s="3">
+        <v>91</v>
+      </c>
+      <c r="CU4" s="3">
+        <v>92</v>
+      </c>
+      <c r="CV4" s="3">
+        <v>93</v>
+      </c>
+      <c r="CW4" s="3">
+        <v>94</v>
+      </c>
+      <c r="CX4" s="3">
+        <v>95</v>
+      </c>
+      <c r="CY4" s="3">
+        <v>96</v>
+      </c>
+      <c r="CZ4" s="3">
+        <v>97</v>
+      </c>
+      <c r="DA4" s="3">
+        <v>98</v>
+      </c>
+      <c r="DB4" s="3">
+        <v>99</v>
+      </c>
+      <c r="DC4" s="3">
+        <v>100</v>
+      </c>
+      <c r="DD4" s="3">
+        <v>101</v>
+      </c>
+      <c r="DE4" s="3">
+        <v>102</v>
+      </c>
+      <c r="DF4" s="3">
+        <v>103</v>
+      </c>
+      <c r="DG4" s="3">
+        <v>104</v>
+      </c>
+      <c r="DH4" s="3">
+        <v>105</v>
+      </c>
+      <c r="DI4" s="3">
+        <v>106</v>
+      </c>
+      <c r="DJ4" s="3">
+        <v>107</v>
+      </c>
+      <c r="DK4" s="3">
+        <v>108</v>
+      </c>
+      <c r="DL4" s="3">
+        <v>109</v>
+      </c>
+      <c r="DM4" s="3">
+        <v>110</v>
+      </c>
+      <c r="DN4" s="3">
+        <v>111</v>
+      </c>
+      <c r="DO4" s="3">
+        <v>112</v>
+      </c>
+      <c r="DP4" s="3">
+        <v>113</v>
+      </c>
+      <c r="DQ4" s="3">
+        <v>114</v>
+      </c>
+      <c r="DR4" s="3">
+        <v>115</v>
+      </c>
+      <c r="DS4" s="3">
+        <v>116</v>
+      </c>
+      <c r="DT4" s="3">
+        <v>117</v>
+      </c>
+      <c r="DU4" s="3">
+        <v>118</v>
+      </c>
+      <c r="DV4" s="3">
+        <v>119</v>
+      </c>
+      <c r="DW4" s="3">
+        <v>120</v>
+      </c>
+      <c r="DX4" s="3">
+        <v>121</v>
+      </c>
+      <c r="DY4" s="3">
+        <v>122</v>
+      </c>
+      <c r="DZ4" s="3">
+        <v>123</v>
+      </c>
+      <c r="EA4" s="3">
+        <v>124</v>
+      </c>
+      <c r="EB4" s="3">
+        <v>125</v>
+      </c>
+      <c r="EC4" s="3">
+        <v>126</v>
+      </c>
+      <c r="ED4" s="3">
+        <v>127</v>
+      </c>
+      <c r="EE4" s="3">
+        <v>128</v>
+      </c>
+      <c r="EF4" s="3">
+        <v>129</v>
+      </c>
+      <c r="EG4" s="3">
+        <v>130</v>
+      </c>
+      <c r="EH4" s="3">
+        <v>131</v>
+      </c>
+      <c r="EI4" s="3">
+        <v>132</v>
+      </c>
+      <c r="EJ4" s="3">
+        <v>133</v>
+      </c>
+      <c r="EK4" s="3">
+        <v>134</v>
+      </c>
+      <c r="EL4" s="3">
+        <v>135</v>
+      </c>
+      <c r="EM4" s="3">
+        <v>136</v>
+      </c>
+      <c r="EN4" s="3">
+        <v>137</v>
+      </c>
+      <c r="EO4" s="3">
+        <v>138</v>
+      </c>
+      <c r="EP4" s="3">
+        <v>139</v>
+      </c>
+      <c r="EQ4" s="3">
+        <v>140</v>
+      </c>
+      <c r="ER4" s="3">
+        <v>141</v>
+      </c>
+      <c r="ES4" s="3">
+        <v>142</v>
+      </c>
+      <c r="ET4" s="3">
+        <v>143</v>
+      </c>
+      <c r="EU4" s="3">
+        <v>144</v>
+      </c>
+      <c r="EV4" s="3">
+        <v>145</v>
+      </c>
+      <c r="EW4" s="3">
+        <v>146</v>
+      </c>
+      <c r="EX4" s="3">
+        <v>147</v>
+      </c>
+      <c r="EY4" s="3">
+        <v>148</v>
+      </c>
+      <c r="EZ4" s="3">
+        <v>149</v>
+      </c>
+      <c r="FA4" s="3">
+        <v>150</v>
+      </c>
+      <c r="FB4" s="3">
+        <v>151</v>
+      </c>
+      <c r="FC4" s="3">
+        <v>152</v>
+      </c>
+      <c r="FD4" s="3">
+        <v>153</v>
+      </c>
+      <c r="FE4" s="3">
+        <v>154</v>
+      </c>
+      <c r="FF4" s="3">
+        <v>155</v>
+      </c>
+      <c r="FG4" s="3">
+        <v>156</v>
+      </c>
+      <c r="FH4" s="3">
+        <v>157</v>
+      </c>
+      <c r="FI4" s="3">
+        <v>158</v>
+      </c>
+      <c r="FJ4" s="3">
+        <v>159</v>
+      </c>
+      <c r="FK4" s="3">
+        <v>160</v>
+      </c>
+      <c r="FL4" s="3">
+        <v>161</v>
+      </c>
+      <c r="FM4" s="3">
+        <v>162</v>
+      </c>
+      <c r="FN4" s="3">
+        <v>163</v>
+      </c>
+      <c r="FO4" s="3">
+        <v>164</v>
+      </c>
+      <c r="FP4" s="3">
+        <v>165</v>
+      </c>
+      <c r="FQ4" s="3">
+        <v>166</v>
+      </c>
+      <c r="FR4" s="3">
+        <v>167</v>
+      </c>
+      <c r="FS4" s="3">
+        <v>168</v>
+      </c>
+      <c r="FT4" s="3">
+        <v>169</v>
+      </c>
+      <c r="FU4" s="3">
+        <v>170</v>
+      </c>
+      <c r="FV4" s="3">
+        <v>171</v>
+      </c>
+      <c r="FW4" s="3">
+        <v>172</v>
+      </c>
+      <c r="FX4" s="3">
+        <v>173</v>
+      </c>
+      <c r="FY4" s="3">
+        <v>174</v>
+      </c>
+      <c r="FZ4" s="3">
+        <v>175</v>
+      </c>
+      <c r="GA4" s="3">
+        <v>176</v>
+      </c>
+      <c r="GB4" s="3">
+        <v>177</v>
+      </c>
+      <c r="GC4" s="3">
+        <v>178</v>
+      </c>
+      <c r="GD4" s="3">
+        <v>179</v>
+      </c>
+      <c r="GE4" s="3">
+        <v>180</v>
+      </c>
+      <c r="GF4" s="3">
+        <v>181</v>
+      </c>
+      <c r="GG4" s="3">
+        <v>182</v>
+      </c>
+      <c r="GH4" s="3">
+        <v>183</v>
+      </c>
+      <c r="GI4" s="3">
+        <v>184</v>
+      </c>
+      <c r="GJ4" s="3">
+        <v>185</v>
+      </c>
+      <c r="GK4" s="3">
+        <v>186</v>
+      </c>
+      <c r="GL4" s="3">
+        <v>187</v>
+      </c>
+      <c r="GM4" s="3">
+        <v>188</v>
+      </c>
+      <c r="GN4" s="3">
+        <v>189</v>
+      </c>
+      <c r="GO4" s="3">
+        <v>190</v>
+      </c>
+      <c r="GP4" s="3">
+        <v>191</v>
+      </c>
+      <c r="GQ4" s="3">
+        <v>192</v>
+      </c>
+      <c r="GR4" s="3">
+        <v>193</v>
+      </c>
+      <c r="GS4" s="3">
+        <v>194</v>
+      </c>
+      <c r="GT4" s="3">
+        <v>195</v>
+      </c>
+      <c r="GU4" s="3">
+        <v>196</v>
+      </c>
+      <c r="GV4" s="3">
+        <v>197</v>
+      </c>
+      <c r="GW4" s="3">
+        <v>198</v>
+      </c>
+      <c r="GX4" s="3">
+        <v>199</v>
+      </c>
+      <c r="GY4" s="3">
+        <v>200</v>
+      </c>
+      <c r="GZ4" s="3">
+        <v>201</v>
+      </c>
+      <c r="HA4" s="3">
+        <v>202</v>
+      </c>
+      <c r="HB4" s="3">
+        <v>203</v>
+      </c>
+      <c r="HC4" s="3">
+        <v>204</v>
+      </c>
+      <c r="HD4" s="3">
+        <v>205</v>
+      </c>
+      <c r="HE4" s="3">
+        <v>206</v>
+      </c>
+      <c r="HF4" s="3">
+        <v>207</v>
+      </c>
+      <c r="HG4" s="3">
+        <v>208</v>
+      </c>
+      <c r="HH4" s="3">
+        <v>209</v>
+      </c>
+      <c r="HI4" s="3">
+        <v>210</v>
+      </c>
+      <c r="HJ4" s="3">
+        <v>211</v>
+      </c>
+      <c r="HK4" s="3">
+        <v>212</v>
+      </c>
+      <c r="HL4" s="3">
+        <v>213</v>
+      </c>
+      <c r="HM4" s="3">
+        <v>214</v>
+      </c>
+      <c r="HN4" s="3">
+        <v>215</v>
+      </c>
+      <c r="HO4" s="3">
+        <v>216</v>
+      </c>
+      <c r="HP4" s="3">
+        <v>217</v>
+      </c>
+      <c r="HQ4" s="3">
+        <v>218</v>
+      </c>
+      <c r="HR4" s="3">
+        <v>219</v>
+      </c>
+      <c r="HS4" s="3">
+        <v>220</v>
+      </c>
+      <c r="HT4" s="3">
+        <v>221</v>
+      </c>
+      <c r="HU4" s="3">
+        <v>222</v>
+      </c>
+      <c r="HV4" s="3">
+        <v>223</v>
+      </c>
+      <c r="HW4" s="3">
+        <v>224</v>
+      </c>
     </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="22" t="s">
+    <row r="5" spans="2:231" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="40">
+        <v>20</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP5" s="1"/>
+      <c r="BQ5" s="1"/>
+      <c r="BR5" s="1"/>
+      <c r="BS5" s="1"/>
+      <c r="BT5" s="1"/>
+      <c r="BU5" s="1"/>
+      <c r="BV5" s="1"/>
+      <c r="BW5" s="1"/>
+      <c r="BX5" s="1"/>
+      <c r="BY5" s="1"/>
+      <c r="BZ5" s="1"/>
+      <c r="CA5" s="1"/>
+      <c r="CB5" s="1"/>
+      <c r="CC5" s="1"/>
+      <c r="CD5" s="1"/>
+      <c r="CE5" s="1"/>
+      <c r="CF5" s="1"/>
+      <c r="CG5" s="1"/>
+      <c r="CH5" s="1"/>
+      <c r="CI5" s="1"/>
+      <c r="DX5" s="1"/>
+      <c r="DY5" s="1"/>
+      <c r="DZ5" s="1"/>
+      <c r="EA5" s="1"/>
+      <c r="EB5" s="1"/>
+      <c r="EC5" s="1"/>
+      <c r="ED5" s="1"/>
+      <c r="EE5" s="1"/>
+      <c r="EF5" s="1"/>
+      <c r="EG5" s="1"/>
+      <c r="EH5" s="1"/>
+      <c r="EI5" s="1"/>
+      <c r="EJ5" s="1"/>
+      <c r="EK5" s="1"/>
+      <c r="EL5" s="1"/>
+      <c r="EM5" s="1"/>
+      <c r="EN5" s="1"/>
+      <c r="EO5" s="1"/>
+      <c r="EP5" s="1"/>
+      <c r="EQ5" s="1"/>
+      <c r="GF5" s="1"/>
+      <c r="GG5" s="1"/>
+      <c r="GH5" s="1"/>
+      <c r="GI5" s="1"/>
+      <c r="GJ5" s="1"/>
+      <c r="GK5" s="1"/>
+      <c r="GL5" s="1"/>
+      <c r="GM5" s="1"/>
+      <c r="GN5" s="1"/>
+      <c r="GO5" s="1"/>
+      <c r="GP5" s="1"/>
+      <c r="GQ5" s="1"/>
+      <c r="GR5" s="1"/>
+      <c r="GS5" s="1"/>
+      <c r="GT5" s="1"/>
+      <c r="GU5" s="1"/>
+      <c r="GV5" s="1"/>
+      <c r="GW5" s="1"/>
+      <c r="GX5" s="1"/>
+      <c r="GY5" s="1"/>
     </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="2:231" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
+      <c r="C6" s="6">
+        <v>21</v>
+      </c>
+      <c r="D6" s="40">
+        <v>28</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="1"/>
+      <c r="BQ6" s="1"/>
+      <c r="BR6" s="1"/>
+      <c r="BS6" s="1"/>
+      <c r="BT6" s="1"/>
+      <c r="BU6" s="1"/>
+      <c r="BV6" s="1"/>
+      <c r="BW6" s="1"/>
+      <c r="BX6" s="1"/>
+      <c r="BY6" s="1"/>
+      <c r="BZ6" s="1"/>
+      <c r="CA6" s="1"/>
+      <c r="CB6" s="1"/>
+      <c r="CC6" s="1"/>
+      <c r="CD6" s="1"/>
+      <c r="CE6" s="1"/>
+      <c r="CF6" s="1"/>
+      <c r="CG6" s="1"/>
+      <c r="CH6" s="1"/>
+      <c r="CI6" s="1"/>
+      <c r="DX6" s="1"/>
+      <c r="DY6" s="1"/>
+      <c r="DZ6" s="1"/>
+      <c r="EA6" s="1"/>
+      <c r="EB6" s="1"/>
+      <c r="EC6" s="1"/>
+      <c r="ED6" s="1"/>
+      <c r="EE6" s="1"/>
+      <c r="EF6" s="1"/>
+      <c r="EG6" s="1"/>
+      <c r="EH6" s="1"/>
+      <c r="EI6" s="1"/>
+      <c r="EJ6" s="1"/>
+      <c r="EK6" s="1"/>
+      <c r="EL6" s="1"/>
+      <c r="EM6" s="1"/>
+      <c r="EN6" s="1"/>
+      <c r="EO6" s="1"/>
+      <c r="EP6" s="1"/>
+      <c r="EQ6" s="1"/>
+      <c r="GF6" s="1"/>
+      <c r="GG6" s="1"/>
+      <c r="GH6" s="1"/>
+      <c r="GI6" s="1"/>
+      <c r="GJ6" s="1"/>
+      <c r="GK6" s="1"/>
+      <c r="GL6" s="1"/>
+      <c r="GM6" s="1"/>
+      <c r="GN6" s="1"/>
+      <c r="GO6" s="1"/>
+      <c r="GP6" s="1"/>
+      <c r="GQ6" s="1"/>
+      <c r="GR6" s="1"/>
+      <c r="GS6" s="1"/>
+      <c r="GT6" s="1"/>
+      <c r="GU6" s="1"/>
+      <c r="GV6" s="1"/>
+      <c r="GW6" s="1"/>
+      <c r="GX6" s="1"/>
+      <c r="GY6" s="1"/>
     </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="2:231" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="40">
+        <v>26</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="1"/>
+      <c r="BQ7" s="1"/>
+      <c r="BR7" s="1"/>
+      <c r="BS7" s="1"/>
+      <c r="BT7" s="1"/>
+      <c r="BU7" s="1"/>
+      <c r="BV7" s="1"/>
+      <c r="BW7" s="1"/>
+      <c r="BX7" s="1"/>
+      <c r="BY7" s="1"/>
+      <c r="BZ7" s="1"/>
+      <c r="CA7" s="1"/>
+      <c r="CB7" s="1"/>
+      <c r="CC7" s="1"/>
+      <c r="CD7" s="1"/>
+      <c r="CE7" s="1"/>
+      <c r="CF7" s="1"/>
+      <c r="CG7" s="1"/>
+      <c r="CH7" s="1"/>
+      <c r="CI7" s="1"/>
+      <c r="DX7" s="1"/>
+      <c r="DY7" s="1"/>
+      <c r="DZ7" s="1"/>
+      <c r="EA7" s="1"/>
+      <c r="EB7" s="1"/>
+      <c r="EC7" s="1"/>
+      <c r="ED7" s="1"/>
+      <c r="EE7" s="1"/>
+      <c r="EF7" s="1"/>
+      <c r="EG7" s="1"/>
+      <c r="EH7" s="1"/>
+      <c r="EI7" s="1"/>
+      <c r="EJ7" s="1"/>
+      <c r="EK7" s="1"/>
+      <c r="EL7" s="1"/>
+      <c r="EM7" s="1"/>
+      <c r="EN7" s="1"/>
+      <c r="EO7" s="1"/>
+      <c r="EP7" s="1"/>
+      <c r="EQ7" s="1"/>
+      <c r="GF7" s="1"/>
+      <c r="GG7" s="1"/>
+      <c r="GH7" s="1"/>
+      <c r="GI7" s="1"/>
+      <c r="GJ7" s="1"/>
+      <c r="GK7" s="1"/>
+      <c r="GL7" s="1"/>
+      <c r="GM7" s="1"/>
+      <c r="GN7" s="1"/>
+      <c r="GO7" s="1"/>
+      <c r="GP7" s="1"/>
+      <c r="GQ7" s="1"/>
+      <c r="GR7" s="1"/>
+      <c r="GS7" s="1"/>
+      <c r="GT7" s="1"/>
+      <c r="GU7" s="1"/>
+      <c r="GV7" s="1"/>
+      <c r="GW7" s="1"/>
+      <c r="GX7" s="1"/>
+      <c r="GY7" s="1"/>
     </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="2:231" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="40">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="1"/>
+      <c r="BQ8" s="1"/>
+      <c r="BR8" s="1"/>
+      <c r="BS8" s="1"/>
+      <c r="BT8" s="1"/>
+      <c r="BU8" s="1"/>
+      <c r="BV8" s="1"/>
+      <c r="BW8" s="1"/>
+      <c r="BX8" s="1"/>
+      <c r="BY8" s="1"/>
+      <c r="BZ8" s="1"/>
+      <c r="CA8" s="1"/>
+      <c r="CB8" s="1"/>
+      <c r="CC8" s="1"/>
+      <c r="CD8" s="1"/>
+      <c r="CE8" s="1"/>
+      <c r="CF8" s="1"/>
+      <c r="CG8" s="1"/>
+      <c r="CH8" s="1"/>
+      <c r="CI8" s="1"/>
+      <c r="DX8" s="1"/>
+      <c r="DY8" s="1"/>
+      <c r="DZ8" s="1"/>
+      <c r="EA8" s="1"/>
+      <c r="EB8" s="1"/>
+      <c r="EC8" s="1"/>
+      <c r="ED8" s="1"/>
+      <c r="EE8" s="1"/>
+      <c r="EF8" s="1"/>
+      <c r="EG8" s="1"/>
+      <c r="EH8" s="1"/>
+      <c r="EI8" s="1"/>
+      <c r="EJ8" s="1"/>
+      <c r="EK8" s="1"/>
+      <c r="EL8" s="1"/>
+      <c r="EM8" s="1"/>
+      <c r="EN8" s="1"/>
+      <c r="EO8" s="1"/>
+      <c r="EP8" s="1"/>
+      <c r="EQ8" s="1"/>
+      <c r="GF8" s="1"/>
+      <c r="GG8" s="1"/>
+      <c r="GH8" s="1"/>
+      <c r="GI8" s="1"/>
+      <c r="GJ8" s="1"/>
+      <c r="GK8" s="1"/>
+      <c r="GL8" s="1"/>
+      <c r="GM8" s="1"/>
+      <c r="GN8" s="1"/>
+      <c r="GO8" s="1"/>
+      <c r="GP8" s="1"/>
+      <c r="GQ8" s="1"/>
+      <c r="GR8" s="1"/>
+      <c r="GS8" s="1"/>
+      <c r="GT8" s="1"/>
+      <c r="GU8" s="1"/>
+      <c r="GV8" s="1"/>
+      <c r="GW8" s="1"/>
+      <c r="GX8" s="1"/>
+      <c r="GY8" s="1"/>
     </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="2:231" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="40">
+        <v>17</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP9" s="1"/>
+      <c r="BQ9" s="1"/>
+      <c r="BR9" s="1"/>
+      <c r="BS9" s="1"/>
+      <c r="BT9" s="1"/>
+      <c r="BU9" s="1"/>
+      <c r="BV9" s="1"/>
+      <c r="BW9" s="1"/>
+      <c r="BX9" s="1"/>
+      <c r="BY9" s="1"/>
+      <c r="BZ9" s="1"/>
+      <c r="CA9" s="1"/>
+      <c r="CB9" s="1"/>
+      <c r="CC9" s="1"/>
+      <c r="CD9" s="1"/>
+      <c r="CE9" s="1"/>
+      <c r="CF9" s="1"/>
+      <c r="CG9" s="1"/>
+      <c r="CH9" s="1"/>
+      <c r="CI9" s="1"/>
+      <c r="DX9" s="1"/>
+      <c r="DY9" s="1"/>
+      <c r="DZ9" s="1"/>
+      <c r="EA9" s="1"/>
+      <c r="EB9" s="1"/>
+      <c r="EC9" s="1"/>
+      <c r="ED9" s="1"/>
+      <c r="EE9" s="1"/>
+      <c r="EF9" s="1"/>
+      <c r="EG9" s="1"/>
+      <c r="EH9" s="1"/>
+      <c r="EI9" s="1"/>
+      <c r="EJ9" s="1"/>
+      <c r="EK9" s="1"/>
+      <c r="EL9" s="1"/>
+      <c r="EM9" s="1"/>
+      <c r="EN9" s="1"/>
+      <c r="EO9" s="1"/>
+      <c r="EP9" s="1"/>
+      <c r="EQ9" s="1"/>
+      <c r="GF9" s="1"/>
+      <c r="GG9" s="1"/>
+      <c r="GH9" s="1"/>
+      <c r="GI9" s="1"/>
+      <c r="GJ9" s="1"/>
+      <c r="GK9" s="1"/>
+      <c r="GL9" s="1"/>
+      <c r="GM9" s="1"/>
+      <c r="GN9" s="1"/>
+      <c r="GO9" s="1"/>
+      <c r="GP9" s="1"/>
+      <c r="GQ9" s="1"/>
+      <c r="GR9" s="1"/>
+      <c r="GS9" s="1"/>
+      <c r="GT9" s="1"/>
+      <c r="GU9" s="1"/>
+      <c r="GV9" s="1"/>
+      <c r="GW9" s="1"/>
+      <c r="GX9" s="1"/>
+      <c r="GY9" s="1"/>
     </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="2:231" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="40">
+        <v>22</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP10" s="1"/>
+      <c r="BQ10" s="1"/>
+      <c r="BR10" s="1"/>
+      <c r="BS10" s="1"/>
+      <c r="BT10" s="1"/>
+      <c r="BU10" s="1"/>
+      <c r="BV10" s="1"/>
+      <c r="BW10" s="1"/>
+      <c r="BX10" s="1"/>
+      <c r="BY10" s="1"/>
+      <c r="BZ10" s="1"/>
+      <c r="CA10" s="1"/>
+      <c r="CB10" s="1"/>
+      <c r="CC10" s="1"/>
+      <c r="CD10" s="1"/>
+      <c r="CE10" s="1"/>
+      <c r="CF10" s="1"/>
+      <c r="CG10" s="1"/>
+      <c r="CH10" s="1"/>
+      <c r="CI10" s="1"/>
+      <c r="DX10" s="1"/>
+      <c r="DY10" s="1"/>
+      <c r="DZ10" s="1"/>
+      <c r="EA10" s="1"/>
+      <c r="EB10" s="1"/>
+      <c r="EC10" s="1"/>
+      <c r="ED10" s="1"/>
+      <c r="EE10" s="1"/>
+      <c r="EF10" s="1"/>
+      <c r="EG10" s="1"/>
+      <c r="EH10" s="1"/>
+      <c r="EI10" s="1"/>
+      <c r="EJ10" s="1"/>
+      <c r="EK10" s="1"/>
+      <c r="EL10" s="1"/>
+      <c r="EM10" s="1"/>
+      <c r="EN10" s="1"/>
+      <c r="EO10" s="1"/>
+      <c r="EP10" s="1"/>
+      <c r="EQ10" s="1"/>
+      <c r="GF10" s="1"/>
+      <c r="GG10" s="1"/>
+      <c r="GH10" s="1"/>
+      <c r="GI10" s="1"/>
+      <c r="GJ10" s="1"/>
+      <c r="GK10" s="1"/>
+      <c r="GL10" s="1"/>
+      <c r="GM10" s="1"/>
+      <c r="GN10" s="1"/>
+      <c r="GO10" s="1"/>
+      <c r="GP10" s="1"/>
+      <c r="GQ10" s="1"/>
+      <c r="GR10" s="1"/>
+      <c r="GS10" s="1"/>
+      <c r="GT10" s="1"/>
+      <c r="GU10" s="1"/>
+      <c r="GV10" s="1"/>
+      <c r="GW10" s="1"/>
+      <c r="GX10" s="1"/>
+      <c r="GY10" s="1"/>
     </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="2:231" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="40">
+        <v>6</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP11" s="1"/>
+      <c r="BQ11" s="1"/>
+      <c r="BR11" s="1"/>
+      <c r="BS11" s="1"/>
+      <c r="BT11" s="1"/>
+      <c r="BU11" s="1"/>
+      <c r="BV11" s="1"/>
+      <c r="BW11" s="1"/>
+      <c r="BX11" s="1"/>
+      <c r="BY11" s="1"/>
+      <c r="BZ11" s="1"/>
+      <c r="CA11" s="1"/>
+      <c r="CB11" s="1"/>
+      <c r="CC11" s="1"/>
+      <c r="CD11" s="1"/>
+      <c r="CE11" s="1"/>
+      <c r="CF11" s="1"/>
+      <c r="CG11" s="1"/>
+      <c r="CH11" s="1"/>
+      <c r="CI11" s="1"/>
+      <c r="DX11" s="1"/>
+      <c r="DY11" s="1"/>
+      <c r="DZ11" s="1"/>
+      <c r="EA11" s="1"/>
+      <c r="EB11" s="1"/>
+      <c r="EC11" s="1"/>
+      <c r="ED11" s="1"/>
+      <c r="EE11" s="1"/>
+      <c r="EF11" s="1"/>
+      <c r="EG11" s="1"/>
+      <c r="EH11" s="1"/>
+      <c r="EI11" s="1"/>
+      <c r="EJ11" s="1"/>
+      <c r="EK11" s="1"/>
+      <c r="EL11" s="1"/>
+      <c r="EM11" s="1"/>
+      <c r="EN11" s="1"/>
+      <c r="EO11" s="1"/>
+      <c r="EP11" s="1"/>
+      <c r="EQ11" s="1"/>
+      <c r="GF11" s="1"/>
+      <c r="GG11" s="1"/>
+      <c r="GH11" s="1"/>
+      <c r="GI11" s="1"/>
+      <c r="GJ11" s="1"/>
+      <c r="GK11" s="1"/>
+      <c r="GL11" s="1"/>
+      <c r="GM11" s="1"/>
+      <c r="GN11" s="1"/>
+      <c r="GO11" s="1"/>
+      <c r="GP11" s="1"/>
+      <c r="GQ11" s="1"/>
+      <c r="GR11" s="1"/>
+      <c r="GS11" s="1"/>
+      <c r="GT11" s="1"/>
+      <c r="GU11" s="1"/>
+      <c r="GV11" s="1"/>
+      <c r="GW11" s="1"/>
+      <c r="GX11" s="1"/>
+      <c r="GY11" s="1"/>
     </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="6" t="s">
+    <row r="12" spans="2:231" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="40">
+        <v>28</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP12" s="1"/>
+      <c r="BQ12" s="1"/>
+      <c r="BR12" s="1"/>
+      <c r="BS12" s="1"/>
+      <c r="BT12" s="1"/>
+      <c r="BU12" s="1"/>
+      <c r="BV12" s="1"/>
+      <c r="BW12" s="1"/>
+      <c r="BX12" s="1"/>
+      <c r="BY12" s="1"/>
+      <c r="BZ12" s="1"/>
+      <c r="CA12" s="1"/>
+      <c r="CB12" s="1"/>
+      <c r="CC12" s="1"/>
+      <c r="CD12" s="1"/>
+      <c r="CE12" s="1"/>
+      <c r="CF12" s="1"/>
+      <c r="CG12" s="1"/>
+      <c r="CH12" s="1"/>
+      <c r="CI12" s="1"/>
+      <c r="DX12" s="1"/>
+      <c r="DY12" s="1"/>
+      <c r="DZ12" s="1"/>
+      <c r="EA12" s="1"/>
+      <c r="EB12" s="1"/>
+      <c r="EC12" s="1"/>
+      <c r="ED12" s="1"/>
+      <c r="EE12" s="1"/>
+      <c r="EF12" s="1"/>
+      <c r="EG12" s="1"/>
+      <c r="EH12" s="1"/>
+      <c r="EI12" s="1"/>
+      <c r="EJ12" s="1"/>
+      <c r="EK12" s="1"/>
+      <c r="EL12" s="1"/>
+      <c r="EM12" s="1"/>
+      <c r="EN12" s="1"/>
+      <c r="EO12" s="1"/>
+      <c r="EP12" s="1"/>
+      <c r="EQ12" s="1"/>
+      <c r="GF12" s="1"/>
+      <c r="GG12" s="1"/>
+      <c r="GH12" s="1"/>
+      <c r="GI12" s="1"/>
+      <c r="GJ12" s="1"/>
+      <c r="GK12" s="1"/>
+      <c r="GL12" s="1"/>
+      <c r="GM12" s="1"/>
+      <c r="GN12" s="1"/>
+      <c r="GO12" s="1"/>
+      <c r="GP12" s="1"/>
+      <c r="GQ12" s="1"/>
+      <c r="GR12" s="1"/>
+      <c r="GS12" s="1"/>
+      <c r="GT12" s="1"/>
+      <c r="GU12" s="1"/>
+      <c r="GV12" s="1"/>
+      <c r="GW12" s="1"/>
+      <c r="GX12" s="1"/>
+      <c r="GY12" s="1"/>
     </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="2:231" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="40">
+        <v>9</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP13" s="1"/>
+      <c r="BQ13" s="1"/>
+      <c r="BR13" s="1"/>
+      <c r="BS13" s="1"/>
+      <c r="BT13" s="1"/>
+      <c r="BU13" s="1"/>
+      <c r="BV13" s="1"/>
+      <c r="BW13" s="1"/>
+      <c r="BX13" s="1"/>
+      <c r="BY13" s="1"/>
+      <c r="BZ13" s="1"/>
+      <c r="CA13" s="1"/>
+      <c r="CB13" s="1"/>
+      <c r="CC13" s="1"/>
+      <c r="CD13" s="1"/>
+      <c r="CE13" s="1"/>
+      <c r="CF13" s="1"/>
+      <c r="CG13" s="1"/>
+      <c r="CH13" s="1"/>
+      <c r="CI13" s="1"/>
+      <c r="DX13" s="1"/>
+      <c r="DY13" s="1"/>
+      <c r="DZ13" s="1"/>
+      <c r="EA13" s="1"/>
+      <c r="EB13" s="1"/>
+      <c r="EC13" s="1"/>
+      <c r="ED13" s="1"/>
+      <c r="EE13" s="1"/>
+      <c r="EF13" s="1"/>
+      <c r="EG13" s="1"/>
+      <c r="EH13" s="1"/>
+      <c r="EI13" s="1"/>
+      <c r="EJ13" s="1"/>
+      <c r="EK13" s="1"/>
+      <c r="EL13" s="1"/>
+      <c r="EM13" s="1"/>
+      <c r="EN13" s="1"/>
+      <c r="EO13" s="1"/>
+      <c r="EP13" s="1"/>
+      <c r="EQ13" s="1"/>
+      <c r="GF13" s="1"/>
+      <c r="GG13" s="1"/>
+      <c r="GH13" s="1"/>
+      <c r="GI13" s="1"/>
+      <c r="GJ13" s="1"/>
+      <c r="GK13" s="1"/>
+      <c r="GL13" s="1"/>
+      <c r="GM13" s="1"/>
+      <c r="GN13" s="1"/>
+      <c r="GO13" s="1"/>
+      <c r="GP13" s="1"/>
+      <c r="GQ13" s="1"/>
+      <c r="GR13" s="1"/>
+      <c r="GS13" s="1"/>
+      <c r="GT13" s="1"/>
+      <c r="GU13" s="1"/>
+      <c r="GV13" s="1"/>
+      <c r="GW13" s="1"/>
+      <c r="GX13" s="1"/>
+      <c r="GY13" s="1"/>
+    </row>
+    <row r="14" spans="2:231" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0</v>
-      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="40">
+        <v>32</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP14" s="1"/>
+      <c r="BQ14" s="1"/>
+      <c r="BR14" s="1"/>
+      <c r="BS14" s="1"/>
+      <c r="BT14" s="1"/>
+      <c r="BU14" s="1"/>
+      <c r="BV14" s="1"/>
+      <c r="BW14" s="1"/>
+      <c r="BX14" s="1"/>
+      <c r="BY14" s="1"/>
+      <c r="BZ14" s="1"/>
+      <c r="CA14" s="1"/>
+      <c r="CB14" s="1"/>
+      <c r="CC14" s="1"/>
+      <c r="CD14" s="1"/>
+      <c r="CE14" s="1"/>
+      <c r="CF14" s="1"/>
+      <c r="CG14" s="1"/>
+      <c r="CH14" s="1"/>
+      <c r="CI14" s="1"/>
+      <c r="DX14" s="1"/>
+      <c r="DY14" s="1"/>
+      <c r="DZ14" s="1"/>
+      <c r="EA14" s="1"/>
+      <c r="EB14" s="1"/>
+      <c r="EC14" s="1"/>
+      <c r="ED14" s="1"/>
+      <c r="EE14" s="1"/>
+      <c r="EF14" s="1"/>
+      <c r="EG14" s="1"/>
+      <c r="EH14" s="1"/>
+      <c r="EI14" s="1"/>
+      <c r="EJ14" s="1"/>
+      <c r="EK14" s="1"/>
+      <c r="EL14" s="1"/>
+      <c r="EM14" s="1"/>
+      <c r="EN14" s="1"/>
+      <c r="EO14" s="1"/>
+      <c r="EP14" s="1"/>
+      <c r="EQ14" s="1"/>
+      <c r="GF14" s="1"/>
+      <c r="GG14" s="1"/>
+      <c r="GH14" s="1"/>
+      <c r="GI14" s="1"/>
+      <c r="GJ14" s="1"/>
+      <c r="GK14" s="1"/>
+      <c r="GL14" s="1"/>
+      <c r="GM14" s="1"/>
+      <c r="GN14" s="1"/>
+      <c r="GO14" s="1"/>
+      <c r="GP14" s="1"/>
+      <c r="GQ14" s="1"/>
+      <c r="GR14" s="1"/>
+      <c r="GS14" s="1"/>
+      <c r="GT14" s="1"/>
+      <c r="GU14" s="1"/>
+      <c r="GV14" s="1"/>
+      <c r="GW14" s="1"/>
+      <c r="GX14" s="1"/>
+      <c r="GY14" s="1"/>
     </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="6" t="s">
+    <row r="15" spans="2:231" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="40">
+        <v>32</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP15" s="1"/>
+      <c r="BQ15" s="1"/>
+      <c r="BR15" s="1"/>
+      <c r="BS15" s="1"/>
+      <c r="BT15" s="1"/>
+      <c r="BU15" s="1"/>
+      <c r="BV15" s="1"/>
+      <c r="BW15" s="1"/>
+      <c r="BX15" s="1"/>
+      <c r="BY15" s="1"/>
+      <c r="BZ15" s="1"/>
+      <c r="CA15" s="1"/>
+      <c r="CB15" s="1"/>
+      <c r="CC15" s="1"/>
+      <c r="CD15" s="1"/>
+      <c r="CE15" s="1"/>
+      <c r="CF15" s="1"/>
+      <c r="CG15" s="1"/>
+      <c r="CH15" s="1"/>
+      <c r="CI15" s="1"/>
+      <c r="DX15" s="1"/>
+      <c r="DY15" s="1"/>
+      <c r="DZ15" s="1"/>
+      <c r="EA15" s="1"/>
+      <c r="EB15" s="1"/>
+      <c r="EC15" s="1"/>
+      <c r="ED15" s="1"/>
+      <c r="EE15" s="1"/>
+      <c r="EF15" s="1"/>
+      <c r="EG15" s="1"/>
+      <c r="EH15" s="1"/>
+      <c r="EI15" s="1"/>
+      <c r="EJ15" s="1"/>
+      <c r="EK15" s="1"/>
+      <c r="EL15" s="1"/>
+      <c r="EM15" s="1"/>
+      <c r="EN15" s="1"/>
+      <c r="EO15" s="1"/>
+      <c r="EP15" s="1"/>
+      <c r="EQ15" s="1"/>
+      <c r="GF15" s="1"/>
+      <c r="GG15" s="1"/>
+      <c r="GH15" s="1"/>
+      <c r="GI15" s="1"/>
+      <c r="GJ15" s="1"/>
+      <c r="GK15" s="1"/>
+      <c r="GL15" s="1"/>
+      <c r="GM15" s="1"/>
+      <c r="GN15" s="1"/>
+      <c r="GO15" s="1"/>
+      <c r="GP15" s="1"/>
+      <c r="GQ15" s="1"/>
+      <c r="GR15" s="1"/>
+      <c r="GS15" s="1"/>
+      <c r="GT15" s="1"/>
+      <c r="GU15" s="1"/>
+      <c r="GV15" s="1"/>
+      <c r="GW15" s="1"/>
+      <c r="GX15" s="1"/>
+      <c r="GY15" s="1"/>
+    </row>
+    <row r="16" spans="2:231" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="40">
+        <v>36</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP16" s="1"/>
+      <c r="BQ16" s="1"/>
+      <c r="BR16" s="1"/>
+      <c r="BS16" s="1"/>
+      <c r="BT16" s="1"/>
+      <c r="BU16" s="1"/>
+      <c r="BV16" s="1"/>
+      <c r="BW16" s="1"/>
+      <c r="BX16" s="1"/>
+      <c r="BY16" s="1"/>
+      <c r="BZ16" s="1"/>
+      <c r="CA16" s="1"/>
+      <c r="CB16" s="1"/>
+      <c r="CC16" s="1"/>
+      <c r="CD16" s="1"/>
+      <c r="CE16" s="1"/>
+      <c r="CF16" s="1"/>
+      <c r="CG16" s="1"/>
+      <c r="CH16" s="1"/>
+      <c r="CI16" s="1"/>
+      <c r="DX16" s="1"/>
+      <c r="DY16" s="1"/>
+      <c r="DZ16" s="1"/>
+      <c r="EA16" s="1"/>
+      <c r="EB16" s="1"/>
+      <c r="EC16" s="1"/>
+      <c r="ED16" s="1"/>
+      <c r="EE16" s="1"/>
+      <c r="EF16" s="1"/>
+      <c r="EG16" s="1"/>
+      <c r="EH16" s="1"/>
+      <c r="EI16" s="1"/>
+      <c r="EJ16" s="1"/>
+      <c r="EK16" s="1"/>
+      <c r="EL16" s="1"/>
+      <c r="EM16" s="1"/>
+      <c r="EN16" s="1"/>
+      <c r="EO16" s="1"/>
+      <c r="EP16" s="1"/>
+      <c r="EQ16" s="1"/>
+      <c r="GF16" s="1"/>
+      <c r="GG16" s="1"/>
+      <c r="GH16" s="1"/>
+      <c r="GI16" s="1"/>
+      <c r="GJ16" s="1"/>
+      <c r="GK16" s="1"/>
+      <c r="GL16" s="1"/>
+      <c r="GM16" s="1"/>
+      <c r="GN16" s="1"/>
+      <c r="GO16" s="1"/>
+      <c r="GP16" s="1"/>
+      <c r="GQ16" s="1"/>
+      <c r="GR16" s="1"/>
+      <c r="GS16" s="1"/>
+      <c r="GT16" s="1"/>
+      <c r="GU16" s="1"/>
+      <c r="GV16" s="1"/>
+      <c r="GW16" s="1"/>
+      <c r="GX16" s="1"/>
+      <c r="GY16" s="1"/>
+    </row>
+    <row r="17" spans="2:207" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="40">
+        <v>20</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP17" s="1"/>
+      <c r="BQ17" s="1"/>
+      <c r="BR17" s="1"/>
+      <c r="BS17" s="1"/>
+      <c r="BT17" s="1"/>
+      <c r="BU17" s="1"/>
+      <c r="BV17" s="1"/>
+      <c r="BW17" s="1"/>
+      <c r="BX17" s="1"/>
+      <c r="BY17" s="1"/>
+      <c r="BZ17" s="1"/>
+      <c r="CA17" s="1"/>
+      <c r="CB17" s="1"/>
+      <c r="CC17" s="1"/>
+      <c r="CD17" s="1"/>
+      <c r="CE17" s="1"/>
+      <c r="CF17" s="1"/>
+      <c r="CG17" s="1"/>
+      <c r="CH17" s="1"/>
+      <c r="CI17" s="1"/>
+      <c r="DX17" s="1"/>
+      <c r="DY17" s="1"/>
+      <c r="DZ17" s="1"/>
+      <c r="EA17" s="1"/>
+      <c r="EB17" s="1"/>
+      <c r="EC17" s="1"/>
+      <c r="ED17" s="1"/>
+      <c r="EE17" s="1"/>
+      <c r="EF17" s="1"/>
+      <c r="EG17" s="1"/>
+      <c r="EH17" s="1"/>
+      <c r="EI17" s="1"/>
+      <c r="EJ17" s="1"/>
+      <c r="EK17" s="1"/>
+      <c r="EL17" s="1"/>
+      <c r="EM17" s="1"/>
+      <c r="EN17" s="1"/>
+      <c r="EO17" s="1"/>
+      <c r="EP17" s="1"/>
+      <c r="EQ17" s="1"/>
+      <c r="GF17" s="1"/>
+      <c r="GG17" s="1"/>
+      <c r="GH17" s="1"/>
+      <c r="GI17" s="1"/>
+      <c r="GJ17" s="1"/>
+      <c r="GK17" s="1"/>
+      <c r="GL17" s="1"/>
+      <c r="GM17" s="1"/>
+      <c r="GN17" s="1"/>
+      <c r="GO17" s="1"/>
+      <c r="GP17" s="1"/>
+      <c r="GQ17" s="1"/>
+      <c r="GR17" s="1"/>
+      <c r="GS17" s="1"/>
+      <c r="GT17" s="1"/>
+      <c r="GU17" s="1"/>
+      <c r="GV17" s="1"/>
+      <c r="GW17" s="1"/>
+      <c r="GX17" s="1"/>
+      <c r="GY17" s="1"/>
+    </row>
+    <row r="18" spans="2:207" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="40">
+        <v>26</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP18" s="1"/>
+      <c r="BQ18" s="1"/>
+      <c r="BR18" s="1"/>
+      <c r="BS18" s="1"/>
+      <c r="BT18" s="1"/>
+      <c r="BU18" s="1"/>
+      <c r="BV18" s="1"/>
+      <c r="BW18" s="1"/>
+      <c r="BX18" s="1"/>
+      <c r="BY18" s="1"/>
+      <c r="BZ18" s="1"/>
+      <c r="CA18" s="1"/>
+      <c r="CB18" s="1"/>
+      <c r="CC18" s="1"/>
+      <c r="CD18" s="1"/>
+      <c r="CE18" s="1"/>
+      <c r="CF18" s="1"/>
+      <c r="CG18" s="1"/>
+      <c r="CH18" s="1"/>
+      <c r="CI18" s="1"/>
+      <c r="DX18" s="1"/>
+      <c r="DY18" s="1"/>
+      <c r="DZ18" s="1"/>
+      <c r="EA18" s="1"/>
+      <c r="EB18" s="1"/>
+      <c r="EC18" s="1"/>
+      <c r="ED18" s="1"/>
+      <c r="EE18" s="1"/>
+      <c r="EF18" s="1"/>
+      <c r="EG18" s="1"/>
+      <c r="EH18" s="1"/>
+      <c r="EI18" s="1"/>
+      <c r="EJ18" s="1"/>
+      <c r="EK18" s="1"/>
+      <c r="EL18" s="1"/>
+      <c r="EM18" s="1"/>
+      <c r="EN18" s="1"/>
+      <c r="EO18" s="1"/>
+      <c r="EP18" s="1"/>
+      <c r="EQ18" s="1"/>
+      <c r="GF18" s="1"/>
+      <c r="GG18" s="1"/>
+      <c r="GH18" s="1"/>
+      <c r="GI18" s="1"/>
+      <c r="GJ18" s="1"/>
+      <c r="GK18" s="1"/>
+      <c r="GL18" s="1"/>
+      <c r="GM18" s="1"/>
+      <c r="GN18" s="1"/>
+      <c r="GO18" s="1"/>
+      <c r="GP18" s="1"/>
+      <c r="GQ18" s="1"/>
+      <c r="GR18" s="1"/>
+      <c r="GS18" s="1"/>
+      <c r="GT18" s="1"/>
+      <c r="GU18" s="1"/>
+      <c r="GV18" s="1"/>
+      <c r="GW18" s="1"/>
+      <c r="GX18" s="1"/>
+      <c r="GY18" s="1"/>
+    </row>
+    <row r="19" spans="2:207" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="40">
+        <v>43</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP19" s="1"/>
+      <c r="BQ19" s="1"/>
+      <c r="BR19" s="1"/>
+      <c r="BS19" s="1"/>
+      <c r="BT19" s="1"/>
+      <c r="BU19" s="1"/>
+      <c r="BV19" s="1"/>
+      <c r="BW19" s="1"/>
+      <c r="BX19" s="1"/>
+      <c r="BY19" s="1"/>
+      <c r="BZ19" s="1"/>
+      <c r="CA19" s="1"/>
+      <c r="CB19" s="1"/>
+      <c r="CC19" s="1"/>
+      <c r="CD19" s="1"/>
+      <c r="CE19" s="1"/>
+      <c r="CF19" s="1"/>
+      <c r="CG19" s="1"/>
+      <c r="CH19" s="1"/>
+      <c r="CI19" s="1"/>
+      <c r="DX19" s="1"/>
+      <c r="DY19" s="1"/>
+      <c r="DZ19" s="1"/>
+      <c r="EA19" s="1"/>
+      <c r="EB19" s="1"/>
+      <c r="EC19" s="1"/>
+      <c r="ED19" s="1"/>
+      <c r="EE19" s="1"/>
+      <c r="EF19" s="1"/>
+      <c r="EG19" s="1"/>
+      <c r="EH19" s="1"/>
+      <c r="EI19" s="1"/>
+      <c r="EJ19" s="1"/>
+      <c r="EK19" s="1"/>
+      <c r="EL19" s="1"/>
+      <c r="EM19" s="1"/>
+      <c r="EN19" s="1"/>
+      <c r="EO19" s="1"/>
+      <c r="EP19" s="1"/>
+      <c r="EQ19" s="1"/>
+      <c r="GF19" s="1"/>
+      <c r="GG19" s="1"/>
+      <c r="GH19" s="1"/>
+      <c r="GI19" s="1"/>
+      <c r="GJ19" s="1"/>
+      <c r="GK19" s="1"/>
+      <c r="GL19" s="1"/>
+      <c r="GM19" s="1"/>
+      <c r="GN19" s="1"/>
+      <c r="GO19" s="1"/>
+      <c r="GP19" s="1"/>
+      <c r="GQ19" s="1"/>
+      <c r="GR19" s="1"/>
+      <c r="GS19" s="1"/>
+      <c r="GT19" s="1"/>
+      <c r="GU19" s="1"/>
+      <c r="GV19" s="1"/>
+      <c r="GW19" s="1"/>
+      <c r="GX19" s="1"/>
+      <c r="GY19" s="1"/>
+    </row>
+    <row r="20" spans="2:207" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="40">
+        <v>34</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP20" s="1"/>
+      <c r="BQ20" s="1"/>
+      <c r="BR20" s="1"/>
+      <c r="BS20" s="1"/>
+      <c r="BT20" s="1"/>
+      <c r="BU20" s="1"/>
+      <c r="BV20" s="1"/>
+      <c r="BW20" s="1"/>
+      <c r="BX20" s="1"/>
+      <c r="BY20" s="1"/>
+      <c r="BZ20" s="1"/>
+      <c r="CA20" s="1"/>
+      <c r="CB20" s="1"/>
+      <c r="CC20" s="1"/>
+      <c r="CD20" s="1"/>
+      <c r="CE20" s="1"/>
+      <c r="CF20" s="1"/>
+      <c r="CG20" s="1"/>
+      <c r="CH20" s="1"/>
+      <c r="CI20" s="1"/>
+      <c r="DX20" s="1"/>
+      <c r="DY20" s="1"/>
+      <c r="DZ20" s="1"/>
+      <c r="EA20" s="1"/>
+      <c r="EB20" s="1"/>
+      <c r="EC20" s="1"/>
+      <c r="ED20" s="1"/>
+      <c r="EE20" s="1"/>
+      <c r="EF20" s="1"/>
+      <c r="EG20" s="1"/>
+      <c r="EH20" s="1"/>
+      <c r="EI20" s="1"/>
+      <c r="EJ20" s="1"/>
+      <c r="EK20" s="1"/>
+      <c r="EL20" s="1"/>
+      <c r="EM20" s="1"/>
+      <c r="EN20" s="1"/>
+      <c r="EO20" s="1"/>
+      <c r="EP20" s="1"/>
+      <c r="EQ20" s="1"/>
+      <c r="GF20" s="1"/>
+      <c r="GG20" s="1"/>
+      <c r="GH20" s="1"/>
+      <c r="GI20" s="1"/>
+      <c r="GJ20" s="1"/>
+      <c r="GK20" s="1"/>
+      <c r="GL20" s="1"/>
+      <c r="GM20" s="1"/>
+      <c r="GN20" s="1"/>
+      <c r="GO20" s="1"/>
+      <c r="GP20" s="1"/>
+      <c r="GQ20" s="1"/>
+      <c r="GR20" s="1"/>
+      <c r="GS20" s="1"/>
+      <c r="GT20" s="1"/>
+      <c r="GU20" s="1"/>
+      <c r="GV20" s="1"/>
+      <c r="GW20" s="1"/>
+      <c r="GX20" s="1"/>
+      <c r="GY20" s="1"/>
+    </row>
+    <row r="21" spans="2:207" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="40">
+        <v>26</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP21" s="1"/>
+      <c r="BQ21" s="1"/>
+      <c r="BR21" s="1"/>
+      <c r="BS21" s="1"/>
+      <c r="BT21" s="1"/>
+      <c r="BU21" s="1"/>
+      <c r="BV21" s="1"/>
+      <c r="BW21" s="1"/>
+      <c r="BX21" s="1"/>
+      <c r="BY21" s="1"/>
+      <c r="BZ21" s="1"/>
+      <c r="CA21" s="1"/>
+      <c r="CB21" s="1"/>
+      <c r="CC21" s="1"/>
+      <c r="CD21" s="1"/>
+      <c r="CE21" s="1"/>
+      <c r="CF21" s="1"/>
+      <c r="CG21" s="1"/>
+      <c r="CH21" s="1"/>
+      <c r="CI21" s="1"/>
+      <c r="DX21" s="1"/>
+      <c r="DY21" s="1"/>
+      <c r="DZ21" s="1"/>
+      <c r="EA21" s="1"/>
+      <c r="EB21" s="1"/>
+      <c r="EC21" s="1"/>
+      <c r="ED21" s="1"/>
+      <c r="EE21" s="1"/>
+      <c r="EF21" s="1"/>
+      <c r="EG21" s="1"/>
+      <c r="EH21" s="1"/>
+      <c r="EI21" s="1"/>
+      <c r="EJ21" s="1"/>
+      <c r="EK21" s="1"/>
+      <c r="EL21" s="1"/>
+      <c r="EM21" s="1"/>
+      <c r="EN21" s="1"/>
+      <c r="EO21" s="1"/>
+      <c r="EP21" s="1"/>
+      <c r="EQ21" s="1"/>
+      <c r="GF21" s="1"/>
+      <c r="GG21" s="1"/>
+      <c r="GH21" s="1"/>
+      <c r="GI21" s="1"/>
+      <c r="GJ21" s="1"/>
+      <c r="GK21" s="1"/>
+      <c r="GL21" s="1"/>
+      <c r="GM21" s="1"/>
+      <c r="GN21" s="1"/>
+      <c r="GO21" s="1"/>
+      <c r="GP21" s="1"/>
+      <c r="GQ21" s="1"/>
+      <c r="GR21" s="1"/>
+      <c r="GS21" s="1"/>
+      <c r="GT21" s="1"/>
+      <c r="GU21" s="1"/>
+      <c r="GV21" s="1"/>
+      <c r="GW21" s="1"/>
+      <c r="GX21" s="1"/>
+      <c r="GY21" s="1"/>
+    </row>
+    <row r="22" spans="2:207" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="40">
+        <v>20</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP22" s="1"/>
+      <c r="BQ22" s="1"/>
+      <c r="BR22" s="1"/>
+      <c r="BS22" s="1"/>
+      <c r="BT22" s="1"/>
+      <c r="BU22" s="1"/>
+      <c r="BV22" s="1"/>
+      <c r="BW22" s="1"/>
+      <c r="BX22" s="1"/>
+      <c r="BY22" s="1"/>
+      <c r="BZ22" s="1"/>
+      <c r="CA22" s="1"/>
+      <c r="CB22" s="1"/>
+      <c r="CC22" s="1"/>
+      <c r="CD22" s="1"/>
+      <c r="CE22" s="1"/>
+      <c r="CF22" s="1"/>
+      <c r="CG22" s="1"/>
+      <c r="CH22" s="1"/>
+      <c r="CI22" s="1"/>
+      <c r="DX22" s="1"/>
+      <c r="DY22" s="1"/>
+      <c r="DZ22" s="1"/>
+      <c r="EA22" s="1"/>
+      <c r="EB22" s="1"/>
+      <c r="EC22" s="1"/>
+      <c r="ED22" s="1"/>
+      <c r="EE22" s="1"/>
+      <c r="EF22" s="1"/>
+      <c r="EG22" s="1"/>
+      <c r="EH22" s="1"/>
+      <c r="EI22" s="1"/>
+      <c r="EJ22" s="1"/>
+      <c r="EK22" s="1"/>
+      <c r="EL22" s="1"/>
+      <c r="EM22" s="1"/>
+      <c r="EN22" s="1"/>
+      <c r="EO22" s="1"/>
+      <c r="EP22" s="1"/>
+      <c r="EQ22" s="1"/>
+      <c r="GF22" s="1"/>
+      <c r="GG22" s="1"/>
+      <c r="GH22" s="1"/>
+      <c r="GI22" s="1"/>
+      <c r="GJ22" s="1"/>
+      <c r="GK22" s="1"/>
+      <c r="GL22" s="1"/>
+      <c r="GM22" s="1"/>
+      <c r="GN22" s="1"/>
+      <c r="GO22" s="1"/>
+      <c r="GP22" s="1"/>
+      <c r="GQ22" s="1"/>
+      <c r="GR22" s="1"/>
+      <c r="GS22" s="1"/>
+      <c r="GT22" s="1"/>
+      <c r="GU22" s="1"/>
+      <c r="GV22" s="1"/>
+      <c r="GW22" s="1"/>
+      <c r="GX22" s="1"/>
+      <c r="GY22" s="1"/>
+    </row>
+    <row r="23" spans="2:207" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="40">
+        <v>27</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP23" s="1"/>
+      <c r="BQ23" s="1"/>
+      <c r="BR23" s="1"/>
+      <c r="BS23" s="1"/>
+      <c r="BT23" s="1"/>
+      <c r="BU23" s="1"/>
+      <c r="BV23" s="1"/>
+      <c r="BW23" s="1"/>
+      <c r="BX23" s="1"/>
+      <c r="BY23" s="1"/>
+      <c r="BZ23" s="1"/>
+      <c r="CA23" s="1"/>
+      <c r="CB23" s="1"/>
+      <c r="CC23" s="1"/>
+      <c r="CD23" s="1"/>
+      <c r="CE23" s="1"/>
+      <c r="CF23" s="1"/>
+      <c r="CG23" s="1"/>
+      <c r="CH23" s="1"/>
+      <c r="CI23" s="1"/>
+      <c r="DX23" s="1"/>
+      <c r="DY23" s="1"/>
+      <c r="DZ23" s="1"/>
+      <c r="EA23" s="1"/>
+      <c r="EB23" s="1"/>
+      <c r="EC23" s="1"/>
+      <c r="ED23" s="1"/>
+      <c r="EE23" s="1"/>
+      <c r="EF23" s="1"/>
+      <c r="EG23" s="1"/>
+      <c r="EH23" s="1"/>
+      <c r="EI23" s="1"/>
+      <c r="EJ23" s="1"/>
+      <c r="EK23" s="1"/>
+      <c r="EL23" s="1"/>
+      <c r="EM23" s="1"/>
+      <c r="EN23" s="1"/>
+      <c r="EO23" s="1"/>
+      <c r="EP23" s="1"/>
+      <c r="EQ23" s="1"/>
+      <c r="GF23" s="1"/>
+      <c r="GG23" s="1"/>
+      <c r="GH23" s="1"/>
+      <c r="GI23" s="1"/>
+      <c r="GJ23" s="1"/>
+      <c r="GK23" s="1"/>
+      <c r="GL23" s="1"/>
+      <c r="GM23" s="1"/>
+      <c r="GN23" s="1"/>
+      <c r="GO23" s="1"/>
+      <c r="GP23" s="1"/>
+      <c r="GQ23" s="1"/>
+      <c r="GR23" s="1"/>
+      <c r="GS23" s="1"/>
+      <c r="GT23" s="1"/>
+      <c r="GU23" s="1"/>
+      <c r="GV23" s="1"/>
+      <c r="GW23" s="1"/>
+      <c r="GX23" s="1"/>
+      <c r="GY23" s="1"/>
+    </row>
+    <row r="24" spans="2:207" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="40">
+        <v>28</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP24" s="1"/>
+      <c r="BQ24" s="1"/>
+      <c r="BR24" s="1"/>
+      <c r="BS24" s="1"/>
+      <c r="BT24" s="1"/>
+      <c r="BU24" s="1"/>
+      <c r="BV24" s="1"/>
+      <c r="BW24" s="1"/>
+      <c r="BX24" s="1"/>
+      <c r="BY24" s="1"/>
+      <c r="BZ24" s="1"/>
+      <c r="CA24" s="1"/>
+      <c r="CB24" s="1"/>
+      <c r="CC24" s="1"/>
+      <c r="CD24" s="1"/>
+      <c r="CE24" s="1"/>
+      <c r="CF24" s="1"/>
+      <c r="CG24" s="1"/>
+      <c r="CH24" s="1"/>
+      <c r="CI24" s="1"/>
+      <c r="DX24" s="1"/>
+      <c r="DY24" s="1"/>
+      <c r="DZ24" s="1"/>
+      <c r="EA24" s="1"/>
+      <c r="EB24" s="1"/>
+      <c r="EC24" s="1"/>
+      <c r="ED24" s="1"/>
+      <c r="EE24" s="1"/>
+      <c r="EF24" s="1"/>
+      <c r="EG24" s="1"/>
+      <c r="EH24" s="1"/>
+      <c r="EI24" s="1"/>
+      <c r="EJ24" s="1"/>
+      <c r="EK24" s="1"/>
+      <c r="EL24" s="1"/>
+      <c r="EM24" s="1"/>
+      <c r="EN24" s="1"/>
+      <c r="EO24" s="1"/>
+      <c r="EP24" s="1"/>
+      <c r="EQ24" s="1"/>
+      <c r="GF24" s="1"/>
+      <c r="GG24" s="1"/>
+      <c r="GH24" s="1"/>
+      <c r="GI24" s="1"/>
+      <c r="GJ24" s="1"/>
+      <c r="GK24" s="1"/>
+      <c r="GL24" s="1"/>
+      <c r="GM24" s="1"/>
+      <c r="GN24" s="1"/>
+      <c r="GO24" s="1"/>
+      <c r="GP24" s="1"/>
+      <c r="GQ24" s="1"/>
+      <c r="GR24" s="1"/>
+      <c r="GS24" s="1"/>
+      <c r="GT24" s="1"/>
+      <c r="GU24" s="1"/>
+      <c r="GV24" s="1"/>
+      <c r="GW24" s="1"/>
+      <c r="GX24" s="1"/>
+      <c r="GY24" s="1"/>
+    </row>
+    <row r="25" spans="2:207" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="40">
+        <v>10</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP25" s="1"/>
+      <c r="BQ25" s="1"/>
+      <c r="BR25" s="1"/>
+      <c r="BS25" s="1"/>
+      <c r="BT25" s="1"/>
+      <c r="BU25" s="1"/>
+      <c r="BV25" s="1"/>
+      <c r="BW25" s="1"/>
+      <c r="BX25" s="1"/>
+      <c r="BY25" s="1"/>
+      <c r="BZ25" s="1"/>
+      <c r="CA25" s="1"/>
+      <c r="CB25" s="1"/>
+      <c r="CC25" s="1"/>
+      <c r="CD25" s="1"/>
+      <c r="CE25" s="1"/>
+      <c r="CF25" s="1"/>
+      <c r="CG25" s="1"/>
+      <c r="CH25" s="1"/>
+      <c r="CI25" s="1"/>
+      <c r="DX25" s="1"/>
+      <c r="DY25" s="1"/>
+      <c r="DZ25" s="1"/>
+      <c r="EA25" s="1"/>
+      <c r="EB25" s="1"/>
+      <c r="EC25" s="1"/>
+      <c r="ED25" s="1"/>
+      <c r="EE25" s="1"/>
+      <c r="EF25" s="1"/>
+      <c r="EG25" s="1"/>
+      <c r="EH25" s="1"/>
+      <c r="EI25" s="1"/>
+      <c r="EJ25" s="1"/>
+      <c r="EK25" s="1"/>
+      <c r="EL25" s="1"/>
+      <c r="EM25" s="1"/>
+      <c r="EN25" s="1"/>
+      <c r="EO25" s="1"/>
+      <c r="EP25" s="1"/>
+      <c r="EQ25" s="1"/>
+      <c r="GF25" s="1"/>
+      <c r="GG25" s="1"/>
+      <c r="GH25" s="1"/>
+      <c r="GI25" s="1"/>
+      <c r="GJ25" s="1"/>
+      <c r="GK25" s="1"/>
+      <c r="GL25" s="1"/>
+      <c r="GM25" s="1"/>
+      <c r="GN25" s="1"/>
+      <c r="GO25" s="1"/>
+      <c r="GP25" s="1"/>
+      <c r="GQ25" s="1"/>
+      <c r="GR25" s="1"/>
+      <c r="GS25" s="1"/>
+      <c r="GT25" s="1"/>
+      <c r="GU25" s="1"/>
+      <c r="GV25" s="1"/>
+      <c r="GW25" s="1"/>
+      <c r="GX25" s="1"/>
+      <c r="GY25" s="1"/>
+    </row>
+    <row r="26" spans="2:207" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="40">
+        <v>24</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP26" s="1"/>
+      <c r="BQ26" s="1"/>
+      <c r="BR26" s="1"/>
+      <c r="BS26" s="1"/>
+      <c r="BT26" s="1"/>
+      <c r="BU26" s="1"/>
+      <c r="BV26" s="1"/>
+      <c r="BW26" s="1"/>
+      <c r="BX26" s="1"/>
+      <c r="BY26" s="1"/>
+      <c r="BZ26" s="1"/>
+      <c r="CA26" s="1"/>
+      <c r="CB26" s="1"/>
+      <c r="CC26" s="1"/>
+      <c r="CD26" s="1"/>
+      <c r="CE26" s="1"/>
+      <c r="CF26" s="1"/>
+      <c r="CG26" s="1"/>
+      <c r="CH26" s="1"/>
+      <c r="CI26" s="1"/>
+      <c r="DX26" s="1"/>
+      <c r="DY26" s="1"/>
+      <c r="DZ26" s="1"/>
+      <c r="EA26" s="1"/>
+      <c r="EB26" s="1"/>
+      <c r="EC26" s="1"/>
+      <c r="ED26" s="1"/>
+      <c r="EE26" s="1"/>
+      <c r="EF26" s="1"/>
+      <c r="EG26" s="1"/>
+      <c r="EH26" s="1"/>
+      <c r="EI26" s="1"/>
+      <c r="EJ26" s="1"/>
+      <c r="EK26" s="1"/>
+      <c r="EL26" s="1"/>
+      <c r="EM26" s="1"/>
+      <c r="EN26" s="1"/>
+      <c r="EO26" s="1"/>
+      <c r="EP26" s="1"/>
+      <c r="EQ26" s="1"/>
+      <c r="GF26" s="1"/>
+      <c r="GG26" s="1"/>
+      <c r="GH26" s="1"/>
+      <c r="GI26" s="1"/>
+      <c r="GJ26" s="1"/>
+      <c r="GK26" s="1"/>
+      <c r="GL26" s="1"/>
+      <c r="GM26" s="1"/>
+      <c r="GN26" s="1"/>
+      <c r="GO26" s="1"/>
+      <c r="GP26" s="1"/>
+      <c r="GQ26" s="1"/>
+      <c r="GR26" s="1"/>
+      <c r="GS26" s="1"/>
+      <c r="GT26" s="1"/>
+      <c r="GU26" s="1"/>
+      <c r="GV26" s="1"/>
+      <c r="GW26" s="1"/>
+      <c r="GX26" s="1"/>
+      <c r="GY26" s="1"/>
+    </row>
+    <row r="27" spans="2:207" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="40">
+        <v>13</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP27" s="1"/>
+      <c r="BQ27" s="1"/>
+      <c r="BR27" s="1"/>
+      <c r="BS27" s="1"/>
+      <c r="BT27" s="1"/>
+      <c r="BU27" s="1"/>
+      <c r="BV27" s="1"/>
+      <c r="BW27" s="1"/>
+      <c r="BX27" s="1"/>
+      <c r="BY27" s="1"/>
+      <c r="BZ27" s="1"/>
+      <c r="CA27" s="1"/>
+      <c r="CB27" s="1"/>
+      <c r="CC27" s="1"/>
+      <c r="CD27" s="1"/>
+      <c r="CE27" s="1"/>
+      <c r="CF27" s="1"/>
+      <c r="CG27" s="1"/>
+      <c r="CH27" s="1"/>
+      <c r="CI27" s="1"/>
+      <c r="DX27" s="1"/>
+      <c r="DY27" s="1"/>
+      <c r="DZ27" s="1"/>
+      <c r="EA27" s="1"/>
+      <c r="EB27" s="1"/>
+      <c r="EC27" s="1"/>
+      <c r="ED27" s="1"/>
+      <c r="EE27" s="1"/>
+      <c r="EF27" s="1"/>
+      <c r="EG27" s="1"/>
+      <c r="EH27" s="1"/>
+      <c r="EI27" s="1"/>
+      <c r="EJ27" s="1"/>
+      <c r="EK27" s="1"/>
+      <c r="EL27" s="1"/>
+      <c r="EM27" s="1"/>
+      <c r="EN27" s="1"/>
+      <c r="EO27" s="1"/>
+      <c r="EP27" s="1"/>
+      <c r="EQ27" s="1"/>
+      <c r="GF27" s="1"/>
+      <c r="GG27" s="1"/>
+      <c r="GH27" s="1"/>
+      <c r="GI27" s="1"/>
+      <c r="GJ27" s="1"/>
+      <c r="GK27" s="1"/>
+      <c r="GL27" s="1"/>
+      <c r="GM27" s="1"/>
+      <c r="GN27" s="1"/>
+      <c r="GO27" s="1"/>
+      <c r="GP27" s="1"/>
+      <c r="GQ27" s="1"/>
+      <c r="GR27" s="1"/>
+      <c r="GS27" s="1"/>
+      <c r="GT27" s="1"/>
+      <c r="GU27" s="1"/>
+      <c r="GV27" s="1"/>
+      <c r="GW27" s="1"/>
+      <c r="GX27" s="1"/>
+      <c r="GY27" s="1"/>
+    </row>
+    <row r="28" spans="2:207" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="40">
+        <v>15</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP28" s="1"/>
+      <c r="BQ28" s="1"/>
+      <c r="BR28" s="1"/>
+      <c r="BS28" s="1"/>
+      <c r="BT28" s="1"/>
+      <c r="BU28" s="1"/>
+      <c r="BV28" s="1"/>
+      <c r="BW28" s="1"/>
+      <c r="BX28" s="1"/>
+      <c r="BY28" s="1"/>
+      <c r="BZ28" s="1"/>
+      <c r="CA28" s="1"/>
+      <c r="CB28" s="1"/>
+      <c r="CC28" s="1"/>
+      <c r="CD28" s="1"/>
+      <c r="CE28" s="1"/>
+      <c r="CF28" s="1"/>
+      <c r="CG28" s="1"/>
+      <c r="CH28" s="1"/>
+      <c r="CI28" s="1"/>
+      <c r="DX28" s="1"/>
+      <c r="DY28" s="1"/>
+      <c r="DZ28" s="1"/>
+      <c r="EA28" s="1"/>
+      <c r="EB28" s="1"/>
+      <c r="EC28" s="1"/>
+      <c r="ED28" s="1"/>
+      <c r="EE28" s="1"/>
+      <c r="EF28" s="1"/>
+      <c r="EG28" s="1"/>
+      <c r="EH28" s="1"/>
+      <c r="EI28" s="1"/>
+      <c r="EJ28" s="1"/>
+      <c r="EK28" s="1"/>
+      <c r="EL28" s="1"/>
+      <c r="EM28" s="1"/>
+      <c r="EN28" s="1"/>
+      <c r="EO28" s="1"/>
+      <c r="EP28" s="1"/>
+      <c r="EQ28" s="1"/>
+      <c r="GF28" s="1"/>
+      <c r="GG28" s="1"/>
+      <c r="GH28" s="1"/>
+      <c r="GI28" s="1"/>
+      <c r="GJ28" s="1"/>
+      <c r="GK28" s="1"/>
+      <c r="GL28" s="1"/>
+      <c r="GM28" s="1"/>
+      <c r="GN28" s="1"/>
+      <c r="GO28" s="1"/>
+      <c r="GP28" s="1"/>
+      <c r="GQ28" s="1"/>
+      <c r="GR28" s="1"/>
+      <c r="GS28" s="1"/>
+      <c r="GT28" s="1"/>
+      <c r="GU28" s="1"/>
+      <c r="GV28" s="1"/>
+      <c r="GW28" s="1"/>
+      <c r="GX28" s="1"/>
+      <c r="GY28" s="1"/>
+    </row>
+    <row r="29" spans="2:207" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="40">
+        <v>10</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP29" s="1"/>
+      <c r="BQ29" s="1"/>
+      <c r="BR29" s="1"/>
+      <c r="BS29" s="1"/>
+      <c r="BT29" s="1"/>
+      <c r="BU29" s="1"/>
+      <c r="BV29" s="1"/>
+      <c r="BW29" s="1"/>
+      <c r="BX29" s="1"/>
+      <c r="BY29" s="1"/>
+      <c r="BZ29" s="1"/>
+      <c r="CA29" s="1"/>
+      <c r="CB29" s="1"/>
+      <c r="CC29" s="1"/>
+      <c r="CD29" s="1"/>
+      <c r="CE29" s="1"/>
+      <c r="CF29" s="1"/>
+      <c r="CG29" s="1"/>
+      <c r="CH29" s="1"/>
+      <c r="CI29" s="1"/>
+      <c r="DX29" s="1"/>
+      <c r="DY29" s="1"/>
+      <c r="DZ29" s="1"/>
+      <c r="EA29" s="1"/>
+      <c r="EB29" s="1"/>
+      <c r="EC29" s="1"/>
+      <c r="ED29" s="1"/>
+      <c r="EE29" s="1"/>
+      <c r="EF29" s="1"/>
+      <c r="EG29" s="1"/>
+      <c r="EH29" s="1"/>
+      <c r="EI29" s="1"/>
+      <c r="EJ29" s="1"/>
+      <c r="EK29" s="1"/>
+      <c r="EL29" s="1"/>
+      <c r="EM29" s="1"/>
+      <c r="EN29" s="1"/>
+      <c r="EO29" s="1"/>
+      <c r="EP29" s="1"/>
+      <c r="EQ29" s="1"/>
+      <c r="GF29" s="1"/>
+      <c r="GG29" s="1"/>
+      <c r="GH29" s="1"/>
+      <c r="GI29" s="1"/>
+      <c r="GJ29" s="1"/>
+      <c r="GK29" s="1"/>
+      <c r="GL29" s="1"/>
+      <c r="GM29" s="1"/>
+      <c r="GN29" s="1"/>
+      <c r="GO29" s="1"/>
+      <c r="GP29" s="1"/>
+      <c r="GQ29" s="1"/>
+      <c r="GR29" s="1"/>
+      <c r="GS29" s="1"/>
+      <c r="GT29" s="1"/>
+      <c r="GU29" s="1"/>
+      <c r="GV29" s="1"/>
+      <c r="GW29" s="1"/>
+      <c r="GX29" s="1"/>
+      <c r="GY29" s="1"/>
+    </row>
+    <row r="30" spans="2:207" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="40">
+        <v>27</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP30" s="1"/>
+      <c r="BQ30" s="1"/>
+      <c r="BR30" s="1"/>
+      <c r="BS30" s="1"/>
+      <c r="BT30" s="1"/>
+      <c r="BU30" s="1"/>
+      <c r="BV30" s="1"/>
+      <c r="BW30" s="1"/>
+      <c r="BX30" s="1"/>
+      <c r="BY30" s="1"/>
+      <c r="BZ30" s="1"/>
+      <c r="CA30" s="1"/>
+      <c r="CB30" s="1"/>
+      <c r="CC30" s="1"/>
+      <c r="CD30" s="1"/>
+      <c r="CE30" s="1"/>
+      <c r="CF30" s="1"/>
+      <c r="CG30" s="1"/>
+      <c r="CH30" s="1"/>
+      <c r="CI30" s="1"/>
+      <c r="DX30" s="1"/>
+      <c r="DY30" s="1"/>
+      <c r="DZ30" s="1"/>
+      <c r="EA30" s="1"/>
+      <c r="EB30" s="1"/>
+      <c r="EC30" s="1"/>
+      <c r="ED30" s="1"/>
+      <c r="EE30" s="1"/>
+      <c r="EF30" s="1"/>
+      <c r="EG30" s="1"/>
+      <c r="EH30" s="1"/>
+      <c r="EI30" s="1"/>
+      <c r="EJ30" s="1"/>
+      <c r="EK30" s="1"/>
+      <c r="EL30" s="1"/>
+      <c r="EM30" s="1"/>
+      <c r="EN30" s="1"/>
+      <c r="EO30" s="1"/>
+      <c r="EP30" s="1"/>
+      <c r="EQ30" s="1"/>
+      <c r="GF30" s="1"/>
+      <c r="GG30" s="1"/>
+      <c r="GH30" s="1"/>
+      <c r="GI30" s="1"/>
+      <c r="GJ30" s="1"/>
+      <c r="GK30" s="1"/>
+      <c r="GL30" s="1"/>
+      <c r="GM30" s="1"/>
+      <c r="GN30" s="1"/>
+      <c r="GO30" s="1"/>
+      <c r="GP30" s="1"/>
+      <c r="GQ30" s="1"/>
+      <c r="GR30" s="1"/>
+      <c r="GS30" s="1"/>
+      <c r="GT30" s="1"/>
+      <c r="GU30" s="1"/>
+      <c r="GV30" s="1"/>
+      <c r="GW30" s="1"/>
+      <c r="GX30" s="1"/>
+      <c r="GY30" s="1"/>
+    </row>
+    <row r="31" spans="2:207" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="40">
         <v>25</v>
       </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP31" s="1"/>
+      <c r="BQ31" s="1"/>
+      <c r="BR31" s="1"/>
+      <c r="BS31" s="1"/>
+      <c r="BT31" s="1"/>
+      <c r="BU31" s="1"/>
+      <c r="BV31" s="1"/>
+      <c r="BW31" s="1"/>
+      <c r="BX31" s="1"/>
+      <c r="BY31" s="1"/>
+      <c r="BZ31" s="1"/>
+      <c r="CA31" s="1"/>
+      <c r="CB31" s="1"/>
+      <c r="CC31" s="1"/>
+      <c r="CD31" s="1"/>
+      <c r="CE31" s="1"/>
+      <c r="CF31" s="1"/>
+      <c r="CG31" s="1"/>
+      <c r="CH31" s="1"/>
+      <c r="CI31" s="1"/>
+      <c r="DX31" s="1"/>
+      <c r="DY31" s="1"/>
+      <c r="DZ31" s="1"/>
+      <c r="EA31" s="1"/>
+      <c r="EB31" s="1"/>
+      <c r="EC31" s="1"/>
+      <c r="ED31" s="1"/>
+      <c r="EE31" s="1"/>
+      <c r="EF31" s="1"/>
+      <c r="EG31" s="1"/>
+      <c r="EH31" s="1"/>
+      <c r="EI31" s="1"/>
+      <c r="EJ31" s="1"/>
+      <c r="EK31" s="1"/>
+      <c r="EL31" s="1"/>
+      <c r="EM31" s="1"/>
+      <c r="EN31" s="1"/>
+      <c r="EO31" s="1"/>
+      <c r="EP31" s="1"/>
+      <c r="EQ31" s="1"/>
+      <c r="GF31" s="1"/>
+      <c r="GG31" s="1"/>
+      <c r="GH31" s="1"/>
+      <c r="GI31" s="1"/>
+      <c r="GJ31" s="1"/>
+      <c r="GK31" s="1"/>
+      <c r="GL31" s="1"/>
+      <c r="GM31" s="1"/>
+      <c r="GN31" s="1"/>
+      <c r="GO31" s="1"/>
+      <c r="GP31" s="1"/>
+      <c r="GQ31" s="1"/>
+      <c r="GR31" s="1"/>
+      <c r="GS31" s="1"/>
+      <c r="GT31" s="1"/>
+      <c r="GU31" s="1"/>
+      <c r="GV31" s="1"/>
+      <c r="GW31" s="1"/>
+      <c r="GX31" s="1"/>
+      <c r="GY31" s="1"/>
     </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
+    <row r="32" spans="2:207" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="40">
+        <v>15</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP32" s="1"/>
+      <c r="BQ32" s="1"/>
+      <c r="BR32" s="1"/>
+      <c r="BS32" s="1"/>
+      <c r="BT32" s="1"/>
+      <c r="BU32" s="1"/>
+      <c r="BV32" s="1"/>
+      <c r="BW32" s="1"/>
+      <c r="BX32" s="1"/>
+      <c r="BY32" s="1"/>
+      <c r="BZ32" s="1"/>
+      <c r="CA32" s="1"/>
+      <c r="CB32" s="1"/>
+      <c r="CC32" s="1"/>
+      <c r="CD32" s="1"/>
+      <c r="CE32" s="1"/>
+      <c r="CF32" s="1"/>
+      <c r="CG32" s="1"/>
+      <c r="CH32" s="1"/>
+      <c r="CI32" s="1"/>
+      <c r="DX32" s="1"/>
+      <c r="DY32" s="1"/>
+      <c r="DZ32" s="1"/>
+      <c r="EA32" s="1"/>
+      <c r="EB32" s="1"/>
+      <c r="EC32" s="1"/>
+      <c r="ED32" s="1"/>
+      <c r="EE32" s="1"/>
+      <c r="EF32" s="1"/>
+      <c r="EG32" s="1"/>
+      <c r="EH32" s="1"/>
+      <c r="EI32" s="1"/>
+      <c r="EJ32" s="1"/>
+      <c r="EK32" s="1"/>
+      <c r="EL32" s="1"/>
+      <c r="EM32" s="1"/>
+      <c r="EN32" s="1"/>
+      <c r="EO32" s="1"/>
+      <c r="EP32" s="1"/>
+      <c r="EQ32" s="1"/>
+      <c r="GF32" s="1"/>
+      <c r="GG32" s="1"/>
+      <c r="GH32" s="1"/>
+      <c r="GI32" s="1"/>
+      <c r="GJ32" s="1"/>
+      <c r="GK32" s="1"/>
+      <c r="GL32" s="1"/>
+      <c r="GM32" s="1"/>
+      <c r="GN32" s="1"/>
+      <c r="GO32" s="1"/>
+      <c r="GP32" s="1"/>
+      <c r="GQ32" s="1"/>
+      <c r="GR32" s="1"/>
+      <c r="GS32" s="1"/>
+      <c r="GT32" s="1"/>
+      <c r="GU32" s="1"/>
+      <c r="GV32" s="1"/>
+      <c r="GW32" s="1"/>
+      <c r="GX32" s="1"/>
+      <c r="GY32" s="1"/>
     </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
+    <row r="33" spans="2:207" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="40">
+        <v>15</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP33" s="1"/>
+      <c r="BQ33" s="1"/>
+      <c r="BR33" s="1"/>
+      <c r="BS33" s="1"/>
+      <c r="BT33" s="1"/>
+      <c r="BU33" s="1"/>
+      <c r="BV33" s="1"/>
+      <c r="BW33" s="1"/>
+      <c r="BX33" s="1"/>
+      <c r="BY33" s="1"/>
+      <c r="BZ33" s="1"/>
+      <c r="CA33" s="1"/>
+      <c r="CB33" s="1"/>
+      <c r="CC33" s="1"/>
+      <c r="CD33" s="1"/>
+      <c r="CE33" s="1"/>
+      <c r="CF33" s="1"/>
+      <c r="CG33" s="1"/>
+      <c r="CH33" s="1"/>
+      <c r="CI33" s="1"/>
+      <c r="DX33" s="1"/>
+      <c r="DY33" s="1"/>
+      <c r="DZ33" s="1"/>
+      <c r="EA33" s="1"/>
+      <c r="EB33" s="1"/>
+      <c r="EC33" s="1"/>
+      <c r="ED33" s="1"/>
+      <c r="EE33" s="1"/>
+      <c r="EF33" s="1"/>
+      <c r="EG33" s="1"/>
+      <c r="EH33" s="1"/>
+      <c r="EI33" s="1"/>
+      <c r="EJ33" s="1"/>
+      <c r="EK33" s="1"/>
+      <c r="EL33" s="1"/>
+      <c r="EM33" s="1"/>
+      <c r="EN33" s="1"/>
+      <c r="EO33" s="1"/>
+      <c r="EP33" s="1"/>
+      <c r="EQ33" s="1"/>
+      <c r="GF33" s="1"/>
+      <c r="GG33" s="1"/>
+      <c r="GH33" s="1"/>
+      <c r="GI33" s="1"/>
+      <c r="GJ33" s="1"/>
+      <c r="GK33" s="1"/>
+      <c r="GL33" s="1"/>
+      <c r="GM33" s="1"/>
+      <c r="GN33" s="1"/>
+      <c r="GO33" s="1"/>
+      <c r="GP33" s="1"/>
+      <c r="GQ33" s="1"/>
+      <c r="GR33" s="1"/>
+      <c r="GS33" s="1"/>
+      <c r="GT33" s="1"/>
+      <c r="GU33" s="1"/>
+      <c r="GV33" s="1"/>
+      <c r="GW33" s="1"/>
+      <c r="GX33" s="1"/>
+      <c r="GY33" s="1"/>
     </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0</v>
-      </c>
+    <row r="34" spans="2:207" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" s="40">
+        <v>31</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP34" s="1"/>
+      <c r="BQ34" s="1"/>
+      <c r="BR34" s="1"/>
+      <c r="BS34" s="1"/>
+      <c r="BT34" s="1"/>
+      <c r="BU34" s="1"/>
+      <c r="BV34" s="1"/>
+      <c r="BW34" s="1"/>
+      <c r="BX34" s="1"/>
+      <c r="BY34" s="1"/>
+      <c r="BZ34" s="1"/>
+      <c r="CA34" s="1"/>
+      <c r="CB34" s="1"/>
+      <c r="CC34" s="1"/>
+      <c r="CD34" s="1"/>
+      <c r="CE34" s="1"/>
+      <c r="CF34" s="1"/>
+      <c r="CG34" s="1"/>
+      <c r="CH34" s="1"/>
+      <c r="CI34" s="1"/>
+      <c r="DX34" s="1"/>
+      <c r="DY34" s="1"/>
+      <c r="DZ34" s="1"/>
+      <c r="EA34" s="1"/>
+      <c r="EB34" s="1"/>
+      <c r="EC34" s="1"/>
+      <c r="ED34" s="1"/>
+      <c r="EE34" s="1"/>
+      <c r="EF34" s="1"/>
+      <c r="EG34" s="1"/>
+      <c r="EH34" s="1"/>
+      <c r="EI34" s="1"/>
+      <c r="EJ34" s="1"/>
+      <c r="EK34" s="1"/>
+      <c r="EL34" s="1"/>
+      <c r="EM34" s="1"/>
+      <c r="EN34" s="1"/>
+      <c r="EO34" s="1"/>
+      <c r="EP34" s="1"/>
+      <c r="EQ34" s="1"/>
+      <c r="GF34" s="1"/>
+      <c r="GG34" s="1"/>
+      <c r="GH34" s="1"/>
+      <c r="GI34" s="1"/>
+      <c r="GJ34" s="1"/>
+      <c r="GK34" s="1"/>
+      <c r="GL34" s="1"/>
+      <c r="GM34" s="1"/>
+      <c r="GN34" s="1"/>
+      <c r="GO34" s="1"/>
+      <c r="GP34" s="1"/>
+      <c r="GQ34" s="1"/>
+      <c r="GR34" s="1"/>
+      <c r="GS34" s="1"/>
+      <c r="GT34" s="1"/>
+      <c r="GU34" s="1"/>
+      <c r="GV34" s="1"/>
+      <c r="GW34" s="1"/>
+      <c r="GX34" s="1"/>
+      <c r="GY34" s="1"/>
     </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0</v>
-      </c>
+    <row r="35" spans="2:207" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0</v>
+      </c>
+      <c r="D35" s="40">
+        <v>30</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP35" s="1"/>
+      <c r="BQ35" s="1"/>
+      <c r="BR35" s="1"/>
+      <c r="BS35" s="1"/>
+      <c r="BT35" s="1"/>
+      <c r="BU35" s="1"/>
+      <c r="BV35" s="1"/>
+      <c r="BW35" s="1"/>
+      <c r="BX35" s="1"/>
+      <c r="BY35" s="1"/>
+      <c r="BZ35" s="1"/>
+      <c r="CA35" s="1"/>
+      <c r="CB35" s="1"/>
+      <c r="CC35" s="1"/>
+      <c r="CD35" s="1"/>
+      <c r="CE35" s="1"/>
+      <c r="CF35" s="1"/>
+      <c r="CG35" s="1"/>
+      <c r="CH35" s="1"/>
+      <c r="CI35" s="1"/>
+      <c r="DX35" s="1"/>
+      <c r="DY35" s="1"/>
+      <c r="DZ35" s="1"/>
+      <c r="EA35" s="1"/>
+      <c r="EB35" s="1"/>
+      <c r="EC35" s="1"/>
+      <c r="ED35" s="1"/>
+      <c r="EE35" s="1"/>
+      <c r="EF35" s="1"/>
+      <c r="EG35" s="1"/>
+      <c r="EH35" s="1"/>
+      <c r="EI35" s="1"/>
+      <c r="EJ35" s="1"/>
+      <c r="EK35" s="1"/>
+      <c r="EL35" s="1"/>
+      <c r="EM35" s="1"/>
+      <c r="EN35" s="1"/>
+      <c r="EO35" s="1"/>
+      <c r="EP35" s="1"/>
+      <c r="EQ35" s="1"/>
+      <c r="GF35" s="1"/>
+      <c r="GG35" s="1"/>
+      <c r="GH35" s="1"/>
+      <c r="GI35" s="1"/>
+      <c r="GJ35" s="1"/>
+      <c r="GK35" s="1"/>
+      <c r="GL35" s="1"/>
+      <c r="GM35" s="1"/>
+      <c r="GN35" s="1"/>
+      <c r="GO35" s="1"/>
+      <c r="GP35" s="1"/>
+      <c r="GQ35" s="1"/>
+      <c r="GR35" s="1"/>
+      <c r="GS35" s="1"/>
+      <c r="GT35" s="1"/>
+      <c r="GU35" s="1"/>
+      <c r="GV35" s="1"/>
+      <c r="GW35" s="1"/>
+      <c r="GX35" s="1"/>
+      <c r="GY35" s="1"/>
     </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0</v>
-      </c>
+    <row r="36" spans="2:207" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="6">
+        <v>0</v>
+      </c>
+      <c r="D36" s="40">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP36" s="1"/>
+      <c r="BQ36" s="1"/>
+      <c r="BR36" s="1"/>
+      <c r="BS36" s="1"/>
+      <c r="BT36" s="1"/>
+      <c r="BU36" s="1"/>
+      <c r="BV36" s="1"/>
+      <c r="BW36" s="1"/>
+      <c r="BX36" s="1"/>
+      <c r="BY36" s="1"/>
+      <c r="BZ36" s="1"/>
+      <c r="CA36" s="1"/>
+      <c r="CB36" s="1"/>
+      <c r="CC36" s="1"/>
+      <c r="CD36" s="1"/>
+      <c r="CE36" s="1"/>
+      <c r="CF36" s="1"/>
+      <c r="CG36" s="1"/>
+      <c r="CH36" s="1"/>
+      <c r="CI36" s="1"/>
+      <c r="DX36" s="1"/>
+      <c r="DY36" s="1"/>
+      <c r="DZ36" s="1"/>
+      <c r="EA36" s="1"/>
+      <c r="EB36" s="1"/>
+      <c r="EC36" s="1"/>
+      <c r="ED36" s="1"/>
+      <c r="EE36" s="1"/>
+      <c r="EF36" s="1"/>
+      <c r="EG36" s="1"/>
+      <c r="EH36" s="1"/>
+      <c r="EI36" s="1"/>
+      <c r="EJ36" s="1"/>
+      <c r="EK36" s="1"/>
+      <c r="EL36" s="1"/>
+      <c r="EM36" s="1"/>
+      <c r="EN36" s="1"/>
+      <c r="EO36" s="1"/>
+      <c r="EP36" s="1"/>
+      <c r="EQ36" s="1"/>
+      <c r="GF36" s="1"/>
+      <c r="GG36" s="1"/>
+      <c r="GH36" s="1"/>
+      <c r="GI36" s="1"/>
+      <c r="GJ36" s="1"/>
+      <c r="GK36" s="1"/>
+      <c r="GL36" s="1"/>
+      <c r="GM36" s="1"/>
+      <c r="GN36" s="1"/>
+      <c r="GO36" s="1"/>
+      <c r="GP36" s="1"/>
+      <c r="GQ36" s="1"/>
+      <c r="GR36" s="1"/>
+      <c r="GS36" s="1"/>
+      <c r="GT36" s="1"/>
+      <c r="GU36" s="1"/>
+      <c r="GV36" s="1"/>
+      <c r="GW36" s="1"/>
+      <c r="GX36" s="1"/>
+      <c r="GY36" s="1"/>
     </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0</v>
-      </c>
+    <row r="37" spans="2:207" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="6">
+        <v>0</v>
+      </c>
+      <c r="D37" s="40">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP37" s="1"/>
+      <c r="BQ37" s="1"/>
+      <c r="BR37" s="1"/>
+      <c r="BS37" s="1"/>
+      <c r="BT37" s="1"/>
+      <c r="BU37" s="1"/>
+      <c r="BV37" s="1"/>
+      <c r="BW37" s="1"/>
+      <c r="BX37" s="1"/>
+      <c r="BY37" s="1"/>
+      <c r="BZ37" s="1"/>
+      <c r="CA37" s="1"/>
+      <c r="CB37" s="1"/>
+      <c r="CC37" s="1"/>
+      <c r="CD37" s="1"/>
+      <c r="CE37" s="1"/>
+      <c r="CF37" s="1"/>
+      <c r="CG37" s="1"/>
+      <c r="CH37" s="1"/>
+      <c r="CI37" s="1"/>
+      <c r="DX37" s="1"/>
+      <c r="DY37" s="1"/>
+      <c r="DZ37" s="1"/>
+      <c r="EA37" s="1"/>
+      <c r="EB37" s="1"/>
+      <c r="EC37" s="1"/>
+      <c r="ED37" s="1"/>
+      <c r="EE37" s="1"/>
+      <c r="EF37" s="1"/>
+      <c r="EG37" s="1"/>
+      <c r="EH37" s="1"/>
+      <c r="EI37" s="1"/>
+      <c r="EJ37" s="1"/>
+      <c r="EK37" s="1"/>
+      <c r="EL37" s="1"/>
+      <c r="EM37" s="1"/>
+      <c r="EN37" s="1"/>
+      <c r="EO37" s="1"/>
+      <c r="EP37" s="1"/>
+      <c r="EQ37" s="1"/>
+      <c r="GF37" s="1"/>
+      <c r="GG37" s="1"/>
+      <c r="GH37" s="1"/>
+      <c r="GI37" s="1"/>
+      <c r="GJ37" s="1"/>
+      <c r="GK37" s="1"/>
+      <c r="GL37" s="1"/>
+      <c r="GM37" s="1"/>
+      <c r="GN37" s="1"/>
+      <c r="GO37" s="1"/>
+      <c r="GP37" s="1"/>
+      <c r="GQ37" s="1"/>
+      <c r="GR37" s="1"/>
+      <c r="GS37" s="1"/>
+      <c r="GT37" s="1"/>
+      <c r="GU37" s="1"/>
+      <c r="GV37" s="1"/>
+      <c r="GW37" s="1"/>
+      <c r="GX37" s="1"/>
+      <c r="GY37" s="1"/>
     </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
+    <row r="38" spans="2:207" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+      <c r="D38" s="40">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP38" s="1"/>
+      <c r="BQ38" s="1"/>
+      <c r="BR38" s="1"/>
+      <c r="BS38" s="1"/>
+      <c r="BT38" s="1"/>
+      <c r="BU38" s="1"/>
+      <c r="BV38" s="1"/>
+      <c r="BW38" s="1"/>
+      <c r="BX38" s="1"/>
+      <c r="BY38" s="1"/>
+      <c r="BZ38" s="1"/>
+      <c r="CA38" s="1"/>
+      <c r="CB38" s="1"/>
+      <c r="CC38" s="1"/>
+      <c r="CD38" s="1"/>
+      <c r="CE38" s="1"/>
+      <c r="CF38" s="1"/>
+      <c r="CG38" s="1"/>
+      <c r="CH38" s="1"/>
+      <c r="CI38" s="1"/>
+      <c r="DX38" s="1"/>
+      <c r="DY38" s="1"/>
+      <c r="DZ38" s="1"/>
+      <c r="EA38" s="1"/>
+      <c r="EB38" s="1"/>
+      <c r="EC38" s="1"/>
+      <c r="ED38" s="1"/>
+      <c r="EE38" s="1"/>
+      <c r="EF38" s="1"/>
+      <c r="EG38" s="1"/>
+      <c r="EH38" s="1"/>
+      <c r="EI38" s="1"/>
+      <c r="EJ38" s="1"/>
+      <c r="EK38" s="1"/>
+      <c r="EL38" s="1"/>
+      <c r="EM38" s="1"/>
+      <c r="EN38" s="1"/>
+      <c r="EO38" s="1"/>
+      <c r="EP38" s="1"/>
+      <c r="EQ38" s="1"/>
+      <c r="GF38" s="1"/>
+      <c r="GG38" s="1"/>
+      <c r="GH38" s="1"/>
+      <c r="GI38" s="1"/>
+      <c r="GJ38" s="1"/>
+      <c r="GK38" s="1"/>
+      <c r="GL38" s="1"/>
+      <c r="GM38" s="1"/>
+      <c r="GN38" s="1"/>
+      <c r="GO38" s="1"/>
+      <c r="GP38" s="1"/>
+      <c r="GQ38" s="1"/>
+      <c r="GR38" s="1"/>
+      <c r="GS38" s="1"/>
+      <c r="GT38" s="1"/>
+      <c r="GU38" s="1"/>
+      <c r="GV38" s="1"/>
+      <c r="GW38" s="1"/>
+      <c r="GX38" s="1"/>
+      <c r="GY38" s="1"/>
     </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0</v>
-      </c>
+    <row r="39" spans="2:207" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+      <c r="D39" s="40">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP39" s="1"/>
+      <c r="BQ39" s="1"/>
+      <c r="BR39" s="1"/>
+      <c r="BS39" s="1"/>
+      <c r="BT39" s="1"/>
+      <c r="BU39" s="1"/>
+      <c r="BV39" s="1"/>
+      <c r="BW39" s="1"/>
+      <c r="BX39" s="1"/>
+      <c r="BY39" s="1"/>
+      <c r="BZ39" s="1"/>
+      <c r="CA39" s="1"/>
+      <c r="CB39" s="1"/>
+      <c r="CC39" s="1"/>
+      <c r="CD39" s="1"/>
+      <c r="CE39" s="1"/>
+      <c r="CF39" s="1"/>
+      <c r="CG39" s="1"/>
+      <c r="CH39" s="1"/>
+      <c r="CI39" s="1"/>
+      <c r="DX39" s="1"/>
+      <c r="DY39" s="1"/>
+      <c r="DZ39" s="1"/>
+      <c r="EA39" s="1"/>
+      <c r="EB39" s="1"/>
+      <c r="EC39" s="1"/>
+      <c r="ED39" s="1"/>
+      <c r="EE39" s="1"/>
+      <c r="EF39" s="1"/>
+      <c r="EG39" s="1"/>
+      <c r="EH39" s="1"/>
+      <c r="EI39" s="1"/>
+      <c r="EJ39" s="1"/>
+      <c r="EK39" s="1"/>
+      <c r="EL39" s="1"/>
+      <c r="EM39" s="1"/>
+      <c r="EN39" s="1"/>
+      <c r="EO39" s="1"/>
+      <c r="EP39" s="1"/>
+      <c r="EQ39" s="1"/>
+      <c r="GF39" s="1"/>
+      <c r="GG39" s="1"/>
+      <c r="GH39" s="1"/>
+      <c r="GI39" s="1"/>
+      <c r="GJ39" s="1"/>
+      <c r="GK39" s="1"/>
+      <c r="GL39" s="1"/>
+      <c r="GM39" s="1"/>
+      <c r="GN39" s="1"/>
+      <c r="GO39" s="1"/>
+      <c r="GP39" s="1"/>
+      <c r="GQ39" s="1"/>
+      <c r="GR39" s="1"/>
+      <c r="GS39" s="1"/>
+      <c r="GT39" s="1"/>
+      <c r="GU39" s="1"/>
+      <c r="GV39" s="1"/>
+      <c r="GW39" s="1"/>
+      <c r="GX39" s="1"/>
+      <c r="GY39" s="1"/>
     </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="7">
-        <v>0</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0</v>
-      </c>
-      <c r="E23" s="7">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0</v>
-      </c>
+    <row r="40" spans="2:207" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="6">
+        <v>0</v>
+      </c>
+      <c r="D40" s="40">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP40" s="1"/>
+      <c r="BQ40" s="1"/>
+      <c r="BR40" s="1"/>
+      <c r="BS40" s="1"/>
+      <c r="BT40" s="1"/>
+      <c r="BU40" s="1"/>
+      <c r="BV40" s="1"/>
+      <c r="BW40" s="1"/>
+      <c r="BX40" s="1"/>
+      <c r="BY40" s="1"/>
+      <c r="BZ40" s="1"/>
+      <c r="CA40" s="1"/>
+      <c r="CB40" s="1"/>
+      <c r="CC40" s="1"/>
+      <c r="CD40" s="1"/>
+      <c r="CE40" s="1"/>
+      <c r="CF40" s="1"/>
+      <c r="CG40" s="1"/>
+      <c r="CH40" s="1"/>
+      <c r="CI40" s="1"/>
+      <c r="DX40" s="1"/>
+      <c r="DY40" s="1"/>
+      <c r="DZ40" s="1"/>
+      <c r="EA40" s="1"/>
+      <c r="EB40" s="1"/>
+      <c r="EC40" s="1"/>
+      <c r="ED40" s="1"/>
+      <c r="EE40" s="1"/>
+      <c r="EF40" s="1"/>
+      <c r="EG40" s="1"/>
+      <c r="EH40" s="1"/>
+      <c r="EI40" s="1"/>
+      <c r="EJ40" s="1"/>
+      <c r="EK40" s="1"/>
+      <c r="EL40" s="1"/>
+      <c r="EM40" s="1"/>
+      <c r="EN40" s="1"/>
+      <c r="EO40" s="1"/>
+      <c r="EP40" s="1"/>
+      <c r="EQ40" s="1"/>
+      <c r="GF40" s="1"/>
+      <c r="GG40" s="1"/>
+      <c r="GH40" s="1"/>
+      <c r="GI40" s="1"/>
+      <c r="GJ40" s="1"/>
+      <c r="GK40" s="1"/>
+      <c r="GL40" s="1"/>
+      <c r="GM40" s="1"/>
+      <c r="GN40" s="1"/>
+      <c r="GO40" s="1"/>
+      <c r="GP40" s="1"/>
+      <c r="GQ40" s="1"/>
+      <c r="GR40" s="1"/>
+      <c r="GS40" s="1"/>
+      <c r="GT40" s="1"/>
+      <c r="GU40" s="1"/>
+      <c r="GV40" s="1"/>
+      <c r="GW40" s="1"/>
+      <c r="GX40" s="1"/>
+      <c r="GY40" s="1"/>
     </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0</v>
-      </c>
+    <row r="41" spans="2:207" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="6">
+        <v>0</v>
+      </c>
+      <c r="D41" s="40">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0</v>
+      </c>
+      <c r="G41" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP41" s="1"/>
+      <c r="BQ41" s="1"/>
+      <c r="BR41" s="1"/>
+      <c r="BS41" s="1"/>
+      <c r="BT41" s="1"/>
+      <c r="BU41" s="1"/>
+      <c r="BV41" s="1"/>
+      <c r="BW41" s="1"/>
+      <c r="BX41" s="1"/>
+      <c r="BY41" s="1"/>
+      <c r="BZ41" s="1"/>
+      <c r="CA41" s="1"/>
+      <c r="CB41" s="1"/>
+      <c r="CC41" s="1"/>
+      <c r="CD41" s="1"/>
+      <c r="CE41" s="1"/>
+      <c r="CF41" s="1"/>
+      <c r="CG41" s="1"/>
+      <c r="CH41" s="1"/>
+      <c r="CI41" s="1"/>
+      <c r="DX41" s="1"/>
+      <c r="DY41" s="1"/>
+      <c r="DZ41" s="1"/>
+      <c r="EA41" s="1"/>
+      <c r="EB41" s="1"/>
+      <c r="EC41" s="1"/>
+      <c r="ED41" s="1"/>
+      <c r="EE41" s="1"/>
+      <c r="EF41" s="1"/>
+      <c r="EG41" s="1"/>
+      <c r="EH41" s="1"/>
+      <c r="EI41" s="1"/>
+      <c r="EJ41" s="1"/>
+      <c r="EK41" s="1"/>
+      <c r="EL41" s="1"/>
+      <c r="EM41" s="1"/>
+      <c r="EN41" s="1"/>
+      <c r="EO41" s="1"/>
+      <c r="EP41" s="1"/>
+      <c r="EQ41" s="1"/>
+      <c r="GF41" s="1"/>
+      <c r="GG41" s="1"/>
+      <c r="GH41" s="1"/>
+      <c r="GI41" s="1"/>
+      <c r="GJ41" s="1"/>
+      <c r="GK41" s="1"/>
+      <c r="GL41" s="1"/>
+      <c r="GM41" s="1"/>
+      <c r="GN41" s="1"/>
+      <c r="GO41" s="1"/>
+      <c r="GP41" s="1"/>
+      <c r="GQ41" s="1"/>
+      <c r="GR41" s="1"/>
+      <c r="GS41" s="1"/>
+      <c r="GT41" s="1"/>
+      <c r="GU41" s="1"/>
+      <c r="GV41" s="1"/>
+      <c r="GW41" s="1"/>
+      <c r="GX41" s="1"/>
+      <c r="GY41" s="1"/>
     </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7">
-        <v>0</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0</v>
-      </c>
+    <row r="42" spans="2:207" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="6">
+        <v>0</v>
+      </c>
+      <c r="D42" s="40">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP42" s="1"/>
+      <c r="BQ42" s="1"/>
+      <c r="BR42" s="1"/>
+      <c r="BS42" s="1"/>
+      <c r="BT42" s="1"/>
+      <c r="BU42" s="1"/>
+      <c r="BV42" s="1"/>
+      <c r="BW42" s="1"/>
+      <c r="BX42" s="1"/>
+      <c r="BY42" s="1"/>
+      <c r="BZ42" s="1"/>
+      <c r="CA42" s="1"/>
+      <c r="CB42" s="1"/>
+      <c r="CC42" s="1"/>
+      <c r="CD42" s="1"/>
+      <c r="CE42" s="1"/>
+      <c r="CF42" s="1"/>
+      <c r="CG42" s="1"/>
+      <c r="CH42" s="1"/>
+      <c r="CI42" s="1"/>
+      <c r="DX42" s="1"/>
+      <c r="DY42" s="1"/>
+      <c r="DZ42" s="1"/>
+      <c r="EA42" s="1"/>
+      <c r="EB42" s="1"/>
+      <c r="EC42" s="1"/>
+      <c r="ED42" s="1"/>
+      <c r="EE42" s="1"/>
+      <c r="EF42" s="1"/>
+      <c r="EG42" s="1"/>
+      <c r="EH42" s="1"/>
+      <c r="EI42" s="1"/>
+      <c r="EJ42" s="1"/>
+      <c r="EK42" s="1"/>
+      <c r="EL42" s="1"/>
+      <c r="EM42" s="1"/>
+      <c r="EN42" s="1"/>
+      <c r="EO42" s="1"/>
+      <c r="EP42" s="1"/>
+      <c r="EQ42" s="1"/>
+      <c r="GF42" s="1"/>
+      <c r="GG42" s="1"/>
+      <c r="GH42" s="1"/>
+      <c r="GI42" s="1"/>
+      <c r="GJ42" s="1"/>
+      <c r="GK42" s="1"/>
+      <c r="GL42" s="1"/>
+      <c r="GM42" s="1"/>
+      <c r="GN42" s="1"/>
+      <c r="GO42" s="1"/>
+      <c r="GP42" s="1"/>
+      <c r="GQ42" s="1"/>
+      <c r="GR42" s="1"/>
+      <c r="GS42" s="1"/>
+      <c r="GT42" s="1"/>
+      <c r="GU42" s="1"/>
+      <c r="GV42" s="1"/>
+      <c r="GW42" s="1"/>
+      <c r="GX42" s="1"/>
+      <c r="GY42" s="1"/>
     </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7">
-        <v>0</v>
-      </c>
-      <c r="F26" s="7">
-        <v>0</v>
-      </c>
-      <c r="G26" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="7">
-        <v>0</v>
-      </c>
-      <c r="D27" s="7">
-        <v>0</v>
-      </c>
-      <c r="E27" s="7">
-        <v>0</v>
-      </c>
-      <c r="F27" s="7">
-        <v>0</v>
-      </c>
-      <c r="G27" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0</v>
-      </c>
-      <c r="E28" s="7">
-        <v>0</v>
-      </c>
-      <c r="F28" s="7">
-        <v>0</v>
-      </c>
-      <c r="G28" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7">
-        <v>0</v>
-      </c>
-      <c r="E29" s="7">
-        <v>0</v>
-      </c>
-      <c r="F29" s="7">
-        <v>0</v>
-      </c>
-      <c r="G29" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7">
-        <v>0</v>
-      </c>
-      <c r="E30" s="7">
-        <v>0</v>
-      </c>
-      <c r="F30" s="7">
-        <v>0</v>
-      </c>
-      <c r="G30" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7">
-        <v>0</v>
-      </c>
-      <c r="E31" s="7">
-        <v>0</v>
-      </c>
-      <c r="F31" s="7">
-        <v>0</v>
-      </c>
-      <c r="G31" s="8">
-        <v>0</v>
+    <row r="43" spans="2:207" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D43" s="38">
+        <f>SUM(D5:D42)</f>
+        <v>711</v>
       </c>
     </row>
   </sheetData>
@@ -1944,7 +4952,7 @@
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:BO31">
+  <conditionalFormatting sqref="H5:HW42">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>ProcentdelFuldført</formula>
     </cfRule>
@@ -1975,7 +4983,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:BO4">
+  <conditionalFormatting sqref="H4:HW4">
     <cfRule type="expression" dxfId="0" priority="8">
       <formula>H$4=valgt_tidsrum</formula>
     </cfRule>

--- a/assets/Gantt-projektplanlægger1.xlsx
+++ b/assets/Gantt-projektplanlægger1.xlsx
@@ -1101,8 +1101,8 @@
   </sheetPr>
   <dimension ref="B1:HW43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1917,7 +1917,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="40">
         <v>20</v>
@@ -1997,7 +1997,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="6">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D6" s="40">
         <v>28</v>

--- a/assets/Gantt-projektplanlægger1.xlsx
+++ b/assets/Gantt-projektplanlægger1.xlsx
@@ -1101,8 +1101,8 @@
   </sheetPr>
   <dimension ref="B1:HW43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1917,7 +1917,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="40">
         <v>20</v>
@@ -1997,7 +1997,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="6">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D6" s="40">
         <v>28</v>
@@ -2077,7 +2077,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D7" s="40">
         <v>26</v>
@@ -2157,7 +2157,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="6">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D8" s="40">
         <v>16</v>
@@ -2237,7 +2237,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="6">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D9" s="40">
         <v>17</v>
@@ -2317,7 +2317,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="6">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D10" s="40">
         <v>22</v>
@@ -2397,7 +2397,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="6">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="D11" s="40">
         <v>6</v>
@@ -2477,7 +2477,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="6">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="D12" s="40">
         <v>28</v>
@@ -2557,7 +2557,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="6">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D13" s="40">
         <v>9</v>
@@ -2637,7 +2637,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="6">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="D14" s="40">
         <v>32</v>
@@ -2717,7 +2717,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="6">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D15" s="40">
         <v>32</v>
@@ -2797,7 +2797,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="6">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D16" s="40">
         <v>36</v>
@@ -2877,7 +2877,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="6">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="D17" s="40">
         <v>20</v>
@@ -2957,7 +2957,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="6">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="D18" s="40">
         <v>26</v>
@@ -3037,7 +3037,7 @@
         <v>32</v>
       </c>
       <c r="C19" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="40">
         <v>43</v>
@@ -3117,7 +3117,7 @@
         <v>33</v>
       </c>
       <c r="C20" s="6">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D20" s="40">
         <v>34</v>
@@ -3197,7 +3197,7 @@
         <v>34</v>
       </c>
       <c r="C21" s="6">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D21" s="40">
         <v>26</v>
@@ -3277,7 +3277,7 @@
         <v>37</v>
       </c>
       <c r="C22" s="6">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="D22" s="40">
         <v>20</v>
@@ -3357,7 +3357,7 @@
         <v>38</v>
       </c>
       <c r="C23" s="6">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D23" s="40">
         <v>27</v>
@@ -3437,7 +3437,7 @@
         <v>39</v>
       </c>
       <c r="C24" s="6">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="D24" s="40">
         <v>28</v>
@@ -3517,7 +3517,7 @@
         <v>30</v>
       </c>
       <c r="C25" s="6">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="D25" s="40">
         <v>10</v>
@@ -3597,7 +3597,7 @@
         <v>40</v>
       </c>
       <c r="C26" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="40">
         <v>24</v>
@@ -3677,7 +3677,7 @@
         <v>41</v>
       </c>
       <c r="C27" s="6">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D27" s="40">
         <v>13</v>
@@ -3757,7 +3757,7 @@
         <v>42</v>
       </c>
       <c r="C28" s="6">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D28" s="40">
         <v>15</v>
@@ -3837,7 +3837,7 @@
         <v>31</v>
       </c>
       <c r="C29" s="6">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D29" s="40">
         <v>10</v>
@@ -3917,7 +3917,7 @@
         <v>43</v>
       </c>
       <c r="C30" s="6">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D30" s="40">
         <v>27</v>
@@ -4077,7 +4077,7 @@
         <v>35</v>
       </c>
       <c r="C32" s="6">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="D32" s="40">
         <v>15</v>
@@ -4157,7 +4157,7 @@
         <v>36</v>
       </c>
       <c r="C33" s="6">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D33" s="40">
         <v>15</v>
@@ -4237,7 +4237,7 @@
         <v>45</v>
       </c>
       <c r="C34" s="6">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D34" s="40">
         <v>31</v>
@@ -4317,7 +4317,7 @@
         <v>46</v>
       </c>
       <c r="C35" s="6">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="D35" s="40">
         <v>30</v>
